--- a/0-网格/00-网格操作.xlsx
+++ b/0-网格/00-网格操作.xlsx
@@ -81,7 +81,7 @@
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,6 +236,22 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -696,7 +712,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -737,12 +753,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -750,6 +760,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="19" fillId="0" borderId="0" xfId="16" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="20" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1072,40 +1106,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.25" style="3" customWidth="1"/>
     <col min="2" max="2" width="6.625" style="4" customWidth="1"/>
     <col min="3" max="3" width="7.25" style="12" customWidth="1"/>
-    <col min="4" max="4" width="9" style="12"/>
+    <col min="4" max="4" width="11.125" style="12" customWidth="1"/>
     <col min="5" max="5" width="9" style="3"/>
-    <col min="6" max="6" width="9" style="6"/>
+    <col min="6" max="6" width="11.625" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.25" style="12" customWidth="1"/>
     <col min="8" max="8" width="9" style="12"/>
     <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-    </row>
-    <row r="2" spans="1:10" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+    </row>
+    <row r="2" spans="1:10" ht="27.75" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1137,8 +1171,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:10">
+      <c r="A3" s="17" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="7">
@@ -1171,8 +1205,8 @@
         <v>10340</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="13"/>
+    <row r="4" spans="1:10">
+      <c r="A4" s="20"/>
       <c r="B4" s="7">
         <v>0.95</v>
       </c>
@@ -1186,369 +1220,470 @@
         <v>6200</v>
       </c>
       <c r="F4" s="9">
-        <f t="shared" ref="F4:F6" si="0">D4*E4</f>
+        <f t="shared" ref="F4:F8" si="0">D4*E4</f>
         <v>10546.2</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="11">
         <v>1.7849999999999999</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="11">
         <v>1.79</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="8">
         <v>5500</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="8">
         <f>H4*I4</f>
         <v>9845</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="13"/>
-      <c r="B5" s="4">
+    <row r="5" spans="1:10">
+      <c r="A5" s="20"/>
+      <c r="B5" s="7">
         <v>0.9</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="11">
         <v>1.6160000000000001</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="21">
+        <v>1.52</v>
+      </c>
+      <c r="E5" s="8">
+        <v>6800</v>
+      </c>
+      <c r="F5" s="9">
+        <f t="shared" si="0"/>
+        <v>10336</v>
+      </c>
+      <c r="G5" s="11">
+        <v>1.696</v>
+      </c>
+      <c r="H5" s="11">
+        <v>1.7010000000000001</v>
+      </c>
+      <c r="I5" s="8">
+        <v>6000</v>
+      </c>
+      <c r="J5" s="8">
+        <f t="shared" ref="J5:J6" si="1">H5*I5</f>
+        <v>10206</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="13" customFormat="1">
+      <c r="A6" s="20"/>
+      <c r="B6" s="7">
+        <v>0.85</v>
+      </c>
+      <c r="C6" s="11">
+        <v>1.5269999999999999</v>
+      </c>
+      <c r="D6" s="21">
+        <v>1.52</v>
+      </c>
+      <c r="E6" s="8">
+        <v>7600</v>
+      </c>
+      <c r="F6" s="9">
+        <f t="shared" si="0"/>
+        <v>11552</v>
+      </c>
+      <c r="G6" s="12">
+        <v>1.6060000000000001</v>
+      </c>
+      <c r="H6" s="12">
         <v>1.611</v>
       </c>
-      <c r="E5" s="3">
+      <c r="I6" s="13">
+        <v>6600</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>10632.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="16" customFormat="1">
+      <c r="A7" s="20"/>
+      <c r="B7" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="C7" s="12">
+        <v>1.4370000000000001</v>
+      </c>
+      <c r="D7" s="22">
+        <v>1.4319999999999999</v>
+      </c>
+      <c r="E7" s="16">
+        <v>8400</v>
+      </c>
+      <c r="F7" s="6">
+        <f t="shared" si="0"/>
+        <v>12028.8</v>
+      </c>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="C8" s="11">
+        <v>1.6160000000000001</v>
+      </c>
+      <c r="D8" s="21">
+        <v>1.52</v>
+      </c>
+      <c r="E8" s="8">
         <v>6800</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F8" s="9">
         <f t="shared" si="0"/>
-        <v>10954.8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="C6" s="12">
-        <v>1.6160000000000001</v>
-      </c>
-      <c r="D6" s="12">
-        <v>1.611</v>
-      </c>
-      <c r="E6" s="3">
-        <v>6800</v>
-      </c>
-      <c r="F6" s="6">
-        <f t="shared" si="0"/>
-        <v>10954.8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="19.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="14" t="s">
+        <v>10336</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="19.5">
+      <c r="A12" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-    </row>
-    <row r="11" spans="1:10" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+    </row>
+    <row r="13" spans="1:10" ht="27.75" thickBot="1">
+      <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C13" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D13" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F13" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G13" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H13" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="J13" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A12" s="15" t="s">
+    <row r="14" spans="1:10">
+      <c r="A14" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B14" s="7">
         <v>1</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C14" s="11">
         <v>0.86499999999999999</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D14" s="11">
         <v>0.86</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E14" s="8">
         <v>2400</v>
       </c>
-      <c r="F12" s="9">
-        <f>D12*E12</f>
+      <c r="F14" s="9">
+        <f>D14*E14</f>
         <v>2064</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G14" s="11">
         <v>0.91500000000000004</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H14" s="11">
         <v>0.92</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I14" s="8">
         <v>1400</v>
-      </c>
-      <c r="J12" s="8">
-        <f>H12*I12</f>
-        <v>1288</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A13" s="13"/>
-      <c r="B13" s="7">
-        <v>0.93</v>
-      </c>
-      <c r="C13" s="11">
-        <v>0.80500000000000005</v>
-      </c>
-      <c r="D13" s="11">
-        <v>0.8</v>
-      </c>
-      <c r="E13" s="8">
-        <v>2600</v>
-      </c>
-      <c r="F13" s="9">
-        <f t="shared" ref="F13:F15" si="1">D13*E13</f>
-        <v>2080</v>
-      </c>
-      <c r="G13" s="11">
-        <v>0.85499999999999998</v>
-      </c>
-      <c r="H13" s="11">
-        <v>0.86</v>
-      </c>
-      <c r="I13" s="8">
-        <v>1600</v>
-      </c>
-      <c r="J13" s="8">
-        <f>H13*I13</f>
-        <v>1376</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A14" s="13"/>
-      <c r="B14" s="7">
-        <v>0.86</v>
-      </c>
-      <c r="C14" s="11">
-        <v>0.745</v>
-      </c>
-      <c r="D14" s="11">
-        <v>0.74</v>
-      </c>
-      <c r="E14" s="8">
-        <v>15400</v>
-      </c>
-      <c r="F14" s="9">
-        <f t="shared" si="1"/>
-        <v>11396</v>
-      </c>
-      <c r="G14" s="12">
-        <v>0.79500000000000004</v>
-      </c>
-      <c r="H14" s="12">
-        <v>0.8</v>
-      </c>
-      <c r="I14" s="3">
-        <v>13600</v>
       </c>
       <c r="J14" s="8">
         <f>H14*I14</f>
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="20"/>
+      <c r="B15" s="7">
+        <v>0.93</v>
+      </c>
+      <c r="C15" s="11">
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="D15" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="E15" s="8">
+        <v>2600</v>
+      </c>
+      <c r="F15" s="9">
+        <f t="shared" ref="F15:F18" si="2">D15*E15</f>
+        <v>2080</v>
+      </c>
+      <c r="G15" s="11">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="H15" s="11">
+        <v>0.86</v>
+      </c>
+      <c r="I15" s="8">
+        <v>1600</v>
+      </c>
+      <c r="J15" s="8">
+        <f>H15*I15</f>
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="20"/>
+      <c r="B16" s="7">
+        <v>0.86</v>
+      </c>
+      <c r="C16" s="11">
+        <v>0.745</v>
+      </c>
+      <c r="D16" s="11">
+        <v>0.74</v>
+      </c>
+      <c r="E16" s="8">
+        <v>15400</v>
+      </c>
+      <c r="F16" s="9">
+        <f t="shared" si="2"/>
+        <v>11396</v>
+      </c>
+      <c r="G16" s="11">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="H16" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="I16" s="8">
+        <v>13600</v>
+      </c>
+      <c r="J16" s="8">
+        <f>H16*I16</f>
         <v>10880</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A15" s="13"/>
-      <c r="B15" s="4">
+    <row r="17" spans="1:10">
+      <c r="A17" s="20"/>
+      <c r="B17" s="7">
         <v>0.79</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C17" s="11">
         <v>0.68400000000000005</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D17" s="11">
         <v>0.67900000000000005</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E17" s="8">
         <v>17800</v>
       </c>
-      <c r="F15" s="6">
-        <f t="shared" si="1"/>
+      <c r="F17" s="9">
+        <f t="shared" si="2"/>
         <v>12086.2</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" ht="19.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="14" t="s">
+      <c r="G17" s="12">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="H17" s="12">
+        <v>0.74</v>
+      </c>
+      <c r="I17" s="3">
+        <v>15500</v>
+      </c>
+      <c r="J17" s="8">
+        <f>H17*I17</f>
+        <v>11470</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="20"/>
+      <c r="B18" s="4">
+        <v>0.72</v>
+      </c>
+      <c r="C18" s="12">
+        <v>0.624</v>
+      </c>
+      <c r="D18" s="12">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="E18" s="3">
+        <v>20700</v>
+      </c>
+      <c r="F18" s="6">
+        <f t="shared" si="2"/>
+        <v>12813.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="F20" s="23"/>
+    </row>
+    <row r="21" spans="1:10" ht="19.5">
+      <c r="A21" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-    </row>
-    <row r="20" spans="1:10" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+    </row>
+    <row r="22" spans="1:10" ht="27.75" thickBot="1">
+      <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C22" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D22" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F22" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="G22" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H20" s="10" t="s">
+      <c r="H22" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="I22" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="J22" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A21" s="15" t="s">
+    <row r="23" spans="1:10">
+      <c r="A23" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B23" s="7">
         <v>1</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C23" s="11">
         <v>1.4650000000000001</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D23" s="11">
         <v>1.46</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E23" s="8">
         <v>3400</v>
       </c>
-      <c r="F21" s="9">
-        <f>D21*E21</f>
+      <c r="F23" s="9">
+        <f>D23*E23</f>
         <v>4964</v>
       </c>
-      <c r="G21" s="11">
+      <c r="G23" s="11">
         <v>1.528</v>
       </c>
-      <c r="H21" s="11">
+      <c r="H23" s="11">
         <v>1.5329999999999999</v>
       </c>
-      <c r="I21" s="8">
+      <c r="I23" s="8">
         <v>2800</v>
       </c>
-      <c r="J21" s="16">
-        <f>H21*I21</f>
+      <c r="J23" s="14">
+        <f>H23*I23</f>
         <v>4292.3999999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A22" s="13"/>
-      <c r="B22" s="7">
+    <row r="24" spans="1:10">
+      <c r="A24" s="18"/>
+      <c r="B24" s="7">
         <v>0.95</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C24" s="11">
         <v>1.3919999999999999</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D24" s="11">
         <v>1.387</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E24" s="8">
         <v>7600</v>
       </c>
-      <c r="F22" s="9">
-        <f t="shared" ref="F22:F24" si="2">D22*E22</f>
+      <c r="F24" s="9">
+        <f t="shared" ref="F24:F25" si="3">D24*E24</f>
         <v>10541.2</v>
       </c>
-      <c r="G22" s="16">
+      <c r="G24" s="14">
         <v>1.4550000000000001</v>
       </c>
-      <c r="H22" s="16">
+      <c r="H24" s="14">
         <v>1.46</v>
       </c>
-      <c r="I22" s="16">
+      <c r="I24" s="14">
         <v>3600</v>
       </c>
-      <c r="J22" s="16">
-        <f>H22*I22</f>
+      <c r="J24" s="14">
+        <f>H24*I24</f>
         <v>5256</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A23" s="13"/>
-      <c r="B23" s="16">
+    <row r="25" spans="1:10">
+      <c r="A25" s="18"/>
+      <c r="B25" s="14">
         <v>0.9</v>
       </c>
-      <c r="C23" s="16">
+      <c r="C25" s="14">
         <v>1.319</v>
       </c>
-      <c r="D23" s="16">
+      <c r="D25" s="14">
         <v>1.3140000000000001</v>
       </c>
-      <c r="E23" s="16">
+      <c r="E25" s="14">
         <v>8300</v>
       </c>
-      <c r="F23" s="17">
-        <f t="shared" si="2"/>
+      <c r="F25" s="15">
+        <f t="shared" si="3"/>
         <v>10906.2</v>
       </c>
-      <c r="J23" s="8"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A24" s="13"/>
+      <c r="J25" s="8"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A23:A26"/>
     <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A14:A18"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/0-网格/00-网格操作.xlsx
+++ b/0-网格/00-网格操作.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="20">
   <si>
     <t>网格种类</t>
   </si>
@@ -70,6 +70,26 @@
   </si>
   <si>
     <t>159920-恒生ETF</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前持有</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>总出股数</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>512880-证券</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>159938-医药</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>513520-日经ETF</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -439,7 +459,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -583,6 +603,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -712,7 +743,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -764,6 +795,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="177" fontId="19" fillId="0" borderId="0" xfId="16" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="20" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="16">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -776,14 +822,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="19" fillId="0" borderId="0" xfId="16" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="20" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1106,10 +1146,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1126,18 +1166,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:10" ht="27.75" thickBot="1">
       <c r="A2" s="1" t="s">
@@ -1172,7 +1212,7 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="22" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="7">
@@ -1198,15 +1238,15 @@
         <v>1.88</v>
       </c>
       <c r="I3" s="8">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="J3" s="8">
         <f>H3*I3</f>
-        <v>10340</v>
+        <v>9400</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="20"/>
+      <c r="A4" s="25"/>
       <c r="B4" s="7">
         <v>0.95</v>
       </c>
@@ -1238,14 +1278,14 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="20"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="7">
         <v>0.9</v>
       </c>
       <c r="C5" s="11">
         <v>1.6160000000000001</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="17">
         <v>1.52</v>
       </c>
       <c r="E5" s="8">
@@ -1262,63 +1302,42 @@
         <v>1.7010000000000001</v>
       </c>
       <c r="I5" s="8">
-        <v>6000</v>
+        <v>5800</v>
       </c>
       <c r="J5" s="8">
-        <f t="shared" ref="J5:J6" si="1">H5*I5</f>
-        <v>10206</v>
+        <f t="shared" ref="J5" si="1">H5*I5</f>
+        <v>9865.8000000000011</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="13" customFormat="1">
-      <c r="A6" s="20"/>
-      <c r="B6" s="7">
+      <c r="A6" s="25"/>
+      <c r="B6" s="14">
         <v>0.85</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="14">
         <v>1.5269999999999999</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="14">
         <v>1.52</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="14">
         <v>7600</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="15">
         <f t="shared" si="0"/>
         <v>11552</v>
       </c>
-      <c r="G6" s="12">
-        <v>1.6060000000000001</v>
-      </c>
-      <c r="H6" s="12">
-        <v>1.611</v>
-      </c>
-      <c r="I6" s="13">
-        <v>6600</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="1"/>
-        <v>10632.6</v>
-      </c>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="21"/>
     </row>
     <row r="7" spans="1:10" s="16" customFormat="1">
-      <c r="A7" s="20"/>
-      <c r="B7" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="C7" s="12">
-        <v>1.4370000000000001</v>
-      </c>
-      <c r="D7" s="22">
-        <v>1.4319999999999999</v>
-      </c>
-      <c r="E7" s="16">
-        <v>8400</v>
-      </c>
-      <c r="F7" s="6">
-        <f t="shared" si="0"/>
-        <v>12028.8</v>
-      </c>
+      <c r="A7" s="25"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="18"/>
+      <c r="F7" s="6"/>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
     </row>
@@ -1332,7 +1351,7 @@
       <c r="C8" s="11">
         <v>1.6160000000000001</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="17">
         <v>1.52</v>
       </c>
       <c r="E8" s="8">
@@ -1343,347 +1362,845 @@
         <v>10336</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="19.5">
-      <c r="A12" s="19" t="s">
+    <row r="10" spans="1:10">
+      <c r="D10" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="3">
+        <v>25200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="20" customFormat="1">
+      <c r="B11" s="4"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="20">
+        <f>5000+5500+6000+5400</f>
+        <v>21900</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+    </row>
+    <row r="12" spans="1:10" s="20" customFormat="1">
+      <c r="B12" s="4"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+    </row>
+    <row r="14" spans="1:10" ht="19.5">
+      <c r="A14" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-    </row>
-    <row r="13" spans="1:10" ht="27.75" thickBot="1">
-      <c r="A13" s="1" t="s">
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+    </row>
+    <row r="15" spans="1:10" ht="27.75" thickBot="1">
+      <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C15" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D15" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F15" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G15" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="H15" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="J15" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="17" t="s">
+    <row r="16" spans="1:10">
+      <c r="A16" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B16" s="7">
         <v>1</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C16" s="11">
         <v>0.86499999999999999</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D16" s="11">
         <v>0.86</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E16" s="8">
         <v>2400</v>
       </c>
-      <c r="F14" s="9">
-        <f>D14*E14</f>
+      <c r="F16" s="9">
+        <f>D16*E16</f>
         <v>2064</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G16" s="11">
         <v>0.91500000000000004</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H16" s="11">
         <v>0.92</v>
       </c>
-      <c r="I14" s="8">
-        <v>1400</v>
-      </c>
-      <c r="J14" s="8">
-        <f>H14*I14</f>
-        <v>1288</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="20"/>
-      <c r="B15" s="7">
+      <c r="I16" s="8">
+        <v>10500</v>
+      </c>
+      <c r="J16" s="8">
+        <f>H16*I16</f>
+        <v>9660</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="25"/>
+      <c r="B17" s="7">
         <v>0.93</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C17" s="11">
         <v>0.80500000000000005</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D17" s="11">
         <v>0.8</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E17" s="8">
         <v>2600</v>
       </c>
-      <c r="F15" s="9">
-        <f t="shared" ref="F15:F18" si="2">D15*E15</f>
+      <c r="F17" s="9">
+        <f t="shared" ref="F17:F20" si="2">D17*E17</f>
         <v>2080</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G17" s="11">
         <v>0.85499999999999998</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H17" s="11">
         <v>0.86</v>
       </c>
-      <c r="I15" s="8">
-        <v>1600</v>
-      </c>
-      <c r="J15" s="8">
-        <f>H15*I15</f>
-        <v>1376</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="20"/>
-      <c r="B16" s="7">
+      <c r="I17" s="8">
+        <v>11900</v>
+      </c>
+      <c r="J17" s="8">
+        <f>H17*I17</f>
+        <v>10234</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="25"/>
+      <c r="B18" s="7">
         <v>0.86</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C18" s="11">
         <v>0.745</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D18" s="11">
         <v>0.74</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E18" s="8">
         <v>15400</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F18" s="9">
         <f t="shared" si="2"/>
         <v>11396</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G18" s="11">
         <v>0.79500000000000004</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H18" s="11">
         <v>0.8</v>
       </c>
-      <c r="I16" s="8">
-        <v>13600</v>
-      </c>
-      <c r="J16" s="8">
-        <f>H16*I16</f>
-        <v>10880</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="20"/>
-      <c r="B17" s="7">
+      <c r="I18" s="8">
+        <v>4800</v>
+      </c>
+      <c r="J18" s="8">
+        <f>H18*I18</f>
+        <v>3840</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="25"/>
+      <c r="B19" s="7">
         <v>0.79</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C19" s="11">
         <v>0.68400000000000005</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D19" s="11">
         <v>0.67900000000000005</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E19" s="8">
         <v>17800</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F19" s="9">
         <f t="shared" si="2"/>
         <v>12086.2</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G19" s="12">
         <v>0.73499999999999999</v>
       </c>
-      <c r="H17" s="12">
+      <c r="H19" s="12">
         <v>0.74</v>
       </c>
-      <c r="I17" s="3">
-        <v>15500</v>
-      </c>
-      <c r="J17" s="8">
-        <f>H17*I17</f>
-        <v>11470</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="20"/>
-      <c r="B18" s="4">
+      <c r="I19" s="3">
+        <v>4500</v>
+      </c>
+      <c r="J19" s="8">
+        <f>H19*I19</f>
+        <v>3330</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="25"/>
+      <c r="B20" s="4">
         <v>0.72</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C20" s="12">
         <v>0.624</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D20" s="12">
         <v>0.61899999999999999</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E20" s="3">
         <v>20700</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F20" s="6">
         <f t="shared" si="2"/>
         <v>12813.3</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
-      <c r="F20" s="23"/>
-    </row>
-    <row r="21" spans="1:10" ht="19.5">
-      <c r="A21" s="19" t="s">
+    <row r="22" spans="1:10" s="20" customFormat="1">
+      <c r="B22" s="4"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="20">
+        <v>38200</v>
+      </c>
+      <c r="F22" s="6"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+    </row>
+    <row r="23" spans="1:10" s="20" customFormat="1">
+      <c r="B23" s="4"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="20">
+        <f>SUM(I16:I19)</f>
+        <v>31700</v>
+      </c>
+      <c r="F23" s="6"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="F24" s="19"/>
+    </row>
+    <row r="25" spans="1:10" ht="19.5">
+      <c r="A25" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-    </row>
-    <row r="22" spans="1:10" ht="27.75" thickBot="1">
-      <c r="A22" s="1" t="s">
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+    </row>
+    <row r="26" spans="1:10" ht="27.75" thickBot="1">
+      <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B26" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C26" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D26" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F26" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G22" s="10" t="s">
+      <c r="G26" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H22" s="10" t="s">
+      <c r="H26" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="I26" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="J26" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="17" t="s">
+    <row r="27" spans="1:10">
+      <c r="A27" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B27" s="7">
         <v>1</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C27" s="11">
         <v>1.4650000000000001</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D27" s="11">
         <v>1.46</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E27" s="8">
         <v>3400</v>
       </c>
-      <c r="F23" s="9">
-        <f>D23*E23</f>
+      <c r="F27" s="9">
+        <f>D27*E27</f>
         <v>4964</v>
       </c>
-      <c r="G23" s="11">
+      <c r="G27" s="11">
         <v>1.528</v>
       </c>
-      <c r="H23" s="11">
+      <c r="H27" s="11">
         <v>1.5329999999999999</v>
       </c>
-      <c r="I23" s="8">
-        <v>2800</v>
-      </c>
-      <c r="J23" s="14">
-        <f>H23*I23</f>
-        <v>4292.3999999999996</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="18"/>
-      <c r="B24" s="7">
+      <c r="I27" s="8">
+        <v>6100</v>
+      </c>
+      <c r="J27" s="8">
+        <f>H27*I27</f>
+        <v>9351.2999999999993</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="23"/>
+      <c r="B28" s="7">
         <v>0.95</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C28" s="11">
         <v>1.3919999999999999</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D28" s="11">
         <v>1.387</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E28" s="8">
         <v>7600</v>
       </c>
-      <c r="F24" s="9">
-        <f t="shared" ref="F24:F25" si="3">D24*E24</f>
+      <c r="F28" s="9">
+        <f t="shared" ref="F28:F30" si="3">D28*E28</f>
         <v>10541.2</v>
       </c>
-      <c r="G24" s="14">
+      <c r="G28" s="14">
         <v>1.4550000000000001</v>
       </c>
-      <c r="H24" s="14">
+      <c r="H28" s="14">
         <v>1.46</v>
       </c>
-      <c r="I24" s="14">
+      <c r="I28" s="14">
         <v>3600</v>
       </c>
-      <c r="J24" s="14">
-        <f>H24*I24</f>
+      <c r="J28" s="14">
+        <f>H28*I28</f>
         <v>5256</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="18"/>
-      <c r="B25" s="14">
+    <row r="29" spans="1:10">
+      <c r="A29" s="23"/>
+      <c r="B29" s="14">
         <v>0.9</v>
       </c>
-      <c r="C25" s="14">
+      <c r="C29" s="14">
         <v>1.319</v>
       </c>
-      <c r="D25" s="14">
+      <c r="D29" s="14">
         <v>1.3140000000000001</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E29" s="14">
         <v>8300</v>
       </c>
-      <c r="F25" s="15">
+      <c r="F29" s="15">
         <f t="shared" si="3"/>
         <v>10906.2</v>
       </c>
-      <c r="J25" s="8"/>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="18"/>
+      <c r="J29" s="8"/>
+    </row>
+    <row r="30" spans="1:10" s="20" customFormat="1">
+      <c r="A30" s="23"/>
+      <c r="B30" s="14">
+        <v>0.85</v>
+      </c>
+      <c r="C30" s="14">
+        <v>1.246</v>
+      </c>
+      <c r="D30" s="14">
+        <v>1.2410000000000001</v>
+      </c>
+      <c r="E30" s="14">
+        <v>9300</v>
+      </c>
+      <c r="F30" s="15">
+        <f t="shared" si="3"/>
+        <v>11541.300000000001</v>
+      </c>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="J30" s="8"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="23"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="D32" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" s="20">
+        <v>11200</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="D33" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" s="20">
+        <f>SUM(I27:I28)</f>
+        <v>9700</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="19.5">
+      <c r="A35" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="24"/>
+    </row>
+    <row r="36" spans="1:10" ht="27.75" thickBot="1">
+      <c r="A36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" s="20" customFormat="1">
+      <c r="A37" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="14">
+        <v>1</v>
+      </c>
+      <c r="C37" s="14">
+        <v>1.0349999999999999</v>
+      </c>
+      <c r="D37" s="14">
+        <v>1.03</v>
+      </c>
+      <c r="E37" s="14">
+        <v>9700</v>
+      </c>
+      <c r="F37" s="26">
+        <f>D37*E37</f>
+        <v>9991</v>
+      </c>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="23"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="23"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="15"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="8"/>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="23"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="15"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="8"/>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="23"/>
+      <c r="E41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="20"/>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="20"/>
+      <c r="D42" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" s="20">
+        <v>1000</v>
+      </c>
+      <c r="I42" s="20"/>
+      <c r="J42" s="20"/>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="20"/>
+      <c r="D43" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" s="20">
+        <f>SUM(I37:I38)</f>
+        <v>0</v>
+      </c>
+      <c r="I43" s="20"/>
+      <c r="J43" s="20"/>
+    </row>
+    <row r="45" spans="1:10" ht="19.5">
+      <c r="A45" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B45" s="24"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="24"/>
+      <c r="J45" s="24"/>
+    </row>
+    <row r="46" spans="1:10" ht="27.75" thickBot="1">
+      <c r="A46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H46" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" s="14">
+        <v>1</v>
+      </c>
+      <c r="C47" s="14">
+        <v>1.905</v>
+      </c>
+      <c r="D47" s="14">
+        <v>1.9</v>
+      </c>
+      <c r="E47" s="14">
+        <v>5300</v>
+      </c>
+      <c r="F47" s="26">
+        <f>D47*E47</f>
+        <v>10070</v>
+      </c>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="14"/>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="23"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="14"/>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="23"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="15"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="8"/>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="23"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="15"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="8"/>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="23"/>
+      <c r="E51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="20"/>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="20"/>
+      <c r="D52" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E52" s="20">
+        <v>100</v>
+      </c>
+      <c r="I52" s="20"/>
+      <c r="J52" s="20"/>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="20"/>
+      <c r="D53" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E53" s="20">
+        <f>SUM(I47:I48)</f>
+        <v>0</v>
+      </c>
+      <c r="I53" s="20"/>
+      <c r="J53" s="20"/>
+    </row>
+    <row r="55" spans="1:10" ht="19.5">
+      <c r="A55" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B55" s="24"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="24"/>
+      <c r="G55" s="24"/>
+      <c r="H55" s="24"/>
+      <c r="I55" s="24"/>
+      <c r="J55" s="24"/>
+    </row>
+    <row r="56" spans="1:10" ht="27.75" thickBot="1">
+      <c r="A56" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G56" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H56" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57" s="14">
+        <v>1</v>
+      </c>
+      <c r="C57" s="14">
+        <v>1.0209999999999999</v>
+      </c>
+      <c r="D57" s="14">
+        <v>1.02</v>
+      </c>
+      <c r="E57" s="14">
+        <v>9800</v>
+      </c>
+      <c r="F57" s="26">
+        <f>D57*E57</f>
+        <v>9996</v>
+      </c>
+      <c r="G57" s="14"/>
+      <c r="H57" s="14"/>
+      <c r="I57" s="14"/>
+      <c r="J57" s="14"/>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="23"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="14"/>
+      <c r="H58" s="14"/>
+      <c r="I58" s="14"/>
+      <c r="J58" s="14"/>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="23"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="15"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="8"/>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="23"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="15"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="8"/>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" s="23"/>
+      <c r="E61" s="20"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="20"/>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="20"/>
+      <c r="D62" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E62" s="20">
+        <v>0</v>
+      </c>
+      <c r="I62" s="20"/>
+      <c r="J62" s="20"/>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" s="20"/>
+      <c r="D63" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E63" s="20">
+        <f>SUM(I57:I58)</f>
+        <v>0</v>
+      </c>
+      <c r="I63" s="20"/>
+      <c r="J63" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A23:A26"/>
+  <mergeCells count="12">
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="A45:J45"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="A55:J55"/>
+    <mergeCell ref="A27:A31"/>
     <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="A25:J25"/>
     <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A16:A20"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/0-网格/00-网格操作.xlsx
+++ b/0-网格/00-网格操作.xlsx
@@ -459,7 +459,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -614,6 +614,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -743,7 +756,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -810,6 +823,9 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="16">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -822,7 +838,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="16" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="16" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1148,8 +1167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="C31" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1166,18 +1185,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
     </row>
     <row r="2" spans="1:10" ht="27.75" thickBot="1">
       <c r="A2" s="1" t="s">
@@ -1212,7 +1231,7 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="23" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="7">
@@ -1246,7 +1265,7 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="25"/>
+      <c r="A4" s="26"/>
       <c r="B4" s="7">
         <v>0.95</v>
       </c>
@@ -1278,7 +1297,7 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="25"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="7">
         <v>0.9</v>
       </c>
@@ -1310,7 +1329,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" s="13" customFormat="1">
-      <c r="A6" s="25"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="14">
         <v>0.85</v>
       </c>
@@ -1333,7 +1352,7 @@
       <c r="J6" s="21"/>
     </row>
     <row r="7" spans="1:10" s="16" customFormat="1">
-      <c r="A7" s="25"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="4"/>
       <c r="C7" s="12"/>
       <c r="D7" s="18"/>
@@ -1393,18 +1412,18 @@
       <c r="H12" s="12"/>
     </row>
     <row r="14" spans="1:10" ht="19.5">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
     </row>
     <row r="15" spans="1:10" ht="27.75" thickBot="1">
       <c r="A15" s="1" t="s">
@@ -1439,7 +1458,7 @@
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="23" t="s">
         <v>7</v>
       </c>
       <c r="B16" s="7">
@@ -1473,7 +1492,7 @@
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="25"/>
+      <c r="A17" s="26"/>
       <c r="B17" s="7">
         <v>0.93</v>
       </c>
@@ -1505,7 +1524,7 @@
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="25"/>
+      <c r="A18" s="26"/>
       <c r="B18" s="7">
         <v>0.86</v>
       </c>
@@ -1537,7 +1556,7 @@
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="25"/>
+      <c r="A19" s="26"/>
       <c r="B19" s="7">
         <v>0.79</v>
       </c>
@@ -1569,7 +1588,7 @@
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="25"/>
+      <c r="A20" s="26"/>
       <c r="B20" s="4">
         <v>0.72</v>
       </c>
@@ -1618,18 +1637,18 @@
       <c r="F24" s="19"/>
     </row>
     <row r="25" spans="1:10" ht="19.5">
-      <c r="A25" s="24" t="s">
+      <c r="A25" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
     </row>
     <row r="26" spans="1:10" ht="27.75" thickBot="1">
       <c r="A26" s="1" t="s">
@@ -1664,7 +1683,7 @@
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="23" t="s">
         <v>7</v>
       </c>
       <c r="B27" s="7">
@@ -1698,7 +1717,7 @@
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="23"/>
+      <c r="A28" s="24"/>
       <c r="B28" s="7">
         <v>0.95</v>
       </c>
@@ -1730,7 +1749,7 @@
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="23"/>
+      <c r="A29" s="24"/>
       <c r="B29" s="14">
         <v>0.9</v>
       </c>
@@ -1750,7 +1769,7 @@
       <c r="J29" s="8"/>
     </row>
     <row r="30" spans="1:10" s="20" customFormat="1">
-      <c r="A30" s="23"/>
+      <c r="A30" s="24"/>
       <c r="B30" s="14">
         <v>0.85</v>
       </c>
@@ -1772,7 +1791,7 @@
       <c r="J30" s="8"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="23"/>
+      <c r="A31" s="24"/>
     </row>
     <row r="32" spans="1:10">
       <c r="D32" s="12" t="s">
@@ -1792,18 +1811,18 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="19.5">
-      <c r="A35" s="24" t="s">
+      <c r="A35" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="B35" s="24"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="24"/>
-      <c r="J35" s="24"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
     </row>
     <row r="36" spans="1:10" ht="27.75" thickBot="1">
       <c r="A36" s="1" t="s">
@@ -1837,45 +1856,65 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="20" customFormat="1">
-      <c r="A37" s="22" t="s">
+    <row r="37" spans="1:10" s="20" customFormat="1" ht="14.25" thickBot="1">
+      <c r="A37" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="14">
+      <c r="B37" s="27">
         <v>1</v>
       </c>
-      <c r="C37" s="14">
+      <c r="C37" s="27">
         <v>1.0349999999999999</v>
       </c>
-      <c r="D37" s="14">
+      <c r="D37" s="27">
         <v>1.03</v>
       </c>
-      <c r="E37" s="14">
+      <c r="E37" s="27">
         <v>9700</v>
       </c>
-      <c r="F37" s="26">
+      <c r="F37" s="28">
         <f>D37*E37</f>
         <v>9991</v>
       </c>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="14"/>
+      <c r="G37" s="14">
+        <v>1.1279999999999999</v>
+      </c>
+      <c r="H37" s="14">
+        <v>1.133</v>
+      </c>
+      <c r="I37" s="14">
+        <v>8700</v>
+      </c>
+      <c r="J37" s="14">
+        <f>H37*I37</f>
+        <v>9857.1</v>
+      </c>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="23"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="9"/>
+      <c r="A38" s="24"/>
+      <c r="B38" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="C38" s="14">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="D38" s="14">
+        <v>0.92700000000000005</v>
+      </c>
+      <c r="E38" s="14">
+        <v>11900</v>
+      </c>
+      <c r="F38" s="22">
+        <f>D38*E38</f>
+        <v>11031.300000000001</v>
+      </c>
       <c r="G38" s="14"/>
       <c r="H38" s="14"/>
       <c r="I38" s="14"/>
       <c r="J38" s="14"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="23"/>
+      <c r="A39" s="24"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
       <c r="D39" s="14"/>
@@ -1885,7 +1924,7 @@
       <c r="J39" s="8"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="23"/>
+      <c r="A40" s="24"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
       <c r="D40" s="14"/>
@@ -1895,7 +1934,7 @@
       <c r="J40" s="8"/>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="23"/>
+      <c r="A41" s="24"/>
       <c r="E41" s="20"/>
       <c r="I41" s="20"/>
       <c r="J41" s="20"/>
@@ -1906,7 +1945,7 @@
         <v>15</v>
       </c>
       <c r="E42" s="20">
-        <v>1000</v>
+        <v>9800</v>
       </c>
       <c r="I42" s="20"/>
       <c r="J42" s="20"/>
@@ -1918,24 +1957,24 @@
       </c>
       <c r="E43" s="20">
         <f>SUM(I37:I38)</f>
-        <v>0</v>
+        <v>8700</v>
       </c>
       <c r="I43" s="20"/>
       <c r="J43" s="20"/>
     </row>
     <row r="45" spans="1:10" ht="19.5">
-      <c r="A45" s="24" t="s">
+      <c r="A45" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B45" s="24"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="24"/>
-      <c r="H45" s="24"/>
-      <c r="I45" s="24"/>
-      <c r="J45" s="24"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="25"/>
+      <c r="J45" s="25"/>
     </row>
     <row r="46" spans="1:10" ht="27.75" thickBot="1">
       <c r="A46" s="1" t="s">
@@ -1970,7 +2009,7 @@
       </c>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="22" t="s">
+      <c r="A47" s="23" t="s">
         <v>7</v>
       </c>
       <c r="B47" s="14">
@@ -1985,7 +2024,7 @@
       <c r="E47" s="14">
         <v>5300</v>
       </c>
-      <c r="F47" s="26">
+      <c r="F47" s="22">
         <f>D47*E47</f>
         <v>10070</v>
       </c>
@@ -1995,7 +2034,7 @@
       <c r="J47" s="14"/>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="23"/>
+      <c r="A48" s="24"/>
       <c r="B48" s="7"/>
       <c r="C48" s="11"/>
       <c r="D48" s="11"/>
@@ -2007,7 +2046,7 @@
       <c r="J48" s="14"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="23"/>
+      <c r="A49" s="24"/>
       <c r="B49" s="14"/>
       <c r="C49" s="14"/>
       <c r="D49" s="14"/>
@@ -2017,7 +2056,7 @@
       <c r="J49" s="8"/>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="23"/>
+      <c r="A50" s="24"/>
       <c r="B50" s="14"/>
       <c r="C50" s="14"/>
       <c r="D50" s="14"/>
@@ -2027,7 +2066,7 @@
       <c r="J50" s="8"/>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="23"/>
+      <c r="A51" s="24"/>
       <c r="E51" s="20"/>
       <c r="I51" s="20"/>
       <c r="J51" s="20"/>
@@ -2056,18 +2095,18 @@
       <c r="J53" s="20"/>
     </row>
     <row r="55" spans="1:10" ht="19.5">
-      <c r="A55" s="24" t="s">
+      <c r="A55" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B55" s="24"/>
-      <c r="C55" s="24"/>
-      <c r="D55" s="24"/>
-      <c r="E55" s="24"/>
-      <c r="F55" s="24"/>
-      <c r="G55" s="24"/>
-      <c r="H55" s="24"/>
-      <c r="I55" s="24"/>
-      <c r="J55" s="24"/>
+      <c r="B55" s="25"/>
+      <c r="C55" s="25"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="25"/>
+      <c r="F55" s="25"/>
+      <c r="G55" s="25"/>
+      <c r="H55" s="25"/>
+      <c r="I55" s="25"/>
+      <c r="J55" s="25"/>
     </row>
     <row r="56" spans="1:10" ht="27.75" thickBot="1">
       <c r="A56" s="1" t="s">
@@ -2102,7 +2141,7 @@
       </c>
     </row>
     <row r="57" spans="1:10">
-      <c r="A57" s="22" t="s">
+      <c r="A57" s="23" t="s">
         <v>7</v>
       </c>
       <c r="B57" s="14">
@@ -2117,7 +2156,7 @@
       <c r="E57" s="14">
         <v>9800</v>
       </c>
-      <c r="F57" s="26">
+      <c r="F57" s="22">
         <f>D57*E57</f>
         <v>9996</v>
       </c>
@@ -2127,7 +2166,7 @@
       <c r="J57" s="14"/>
     </row>
     <row r="58" spans="1:10">
-      <c r="A58" s="23"/>
+      <c r="A58" s="24"/>
       <c r="B58" s="7"/>
       <c r="C58" s="11"/>
       <c r="D58" s="11"/>
@@ -2139,7 +2178,7 @@
       <c r="J58" s="14"/>
     </row>
     <row r="59" spans="1:10">
-      <c r="A59" s="23"/>
+      <c r="A59" s="24"/>
       <c r="B59" s="14"/>
       <c r="C59" s="14"/>
       <c r="D59" s="14"/>
@@ -2149,7 +2188,7 @@
       <c r="J59" s="8"/>
     </row>
     <row r="60" spans="1:10">
-      <c r="A60" s="23"/>
+      <c r="A60" s="24"/>
       <c r="B60" s="14"/>
       <c r="C60" s="14"/>
       <c r="D60" s="14"/>
@@ -2159,7 +2198,7 @@
       <c r="J60" s="8"/>
     </row>
     <row r="61" spans="1:10">
-      <c r="A61" s="23"/>
+      <c r="A61" s="24"/>
       <c r="E61" s="20"/>
       <c r="I61" s="20"/>
       <c r="J61" s="20"/>
@@ -2189,18 +2228,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A16:A20"/>
     <mergeCell ref="A57:A61"/>
     <mergeCell ref="A35:J35"/>
     <mergeCell ref="A37:A41"/>
     <mergeCell ref="A45:J45"/>
     <mergeCell ref="A47:A51"/>
     <mergeCell ref="A55:J55"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A16:A20"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/0-网格/00-网格操作.xlsx
+++ b/0-网格/00-网格操作.xlsx
@@ -820,12 +820,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="16">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="16" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="16" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -838,10 +841,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="16" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="16" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="16" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1167,8 +1167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C31" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1185,18 +1185,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
     </row>
     <row r="2" spans="1:10" ht="27.75" thickBot="1">
       <c r="A2" s="1" t="s">
@@ -1231,7 +1231,7 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="24" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="7">
@@ -1265,7 +1265,7 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="26"/>
+      <c r="A4" s="27"/>
       <c r="B4" s="7">
         <v>0.95</v>
       </c>
@@ -1297,7 +1297,7 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="26"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="7">
         <v>0.9</v>
       </c>
@@ -1324,39 +1324,60 @@
         <v>5800</v>
       </c>
       <c r="J5" s="8">
-        <f t="shared" ref="J5" si="1">H5*I5</f>
+        <f t="shared" ref="J5:J6" si="1">H5*I5</f>
         <v>9865.8000000000011</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="13" customFormat="1">
-      <c r="A6" s="26"/>
-      <c r="B6" s="14">
+      <c r="A6" s="27"/>
+      <c r="B6" s="22">
         <v>0.85</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="22">
         <v>1.5269999999999999</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="22">
         <v>1.52</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="22">
         <v>7600</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="28">
         <f t="shared" si="0"/>
         <v>11552</v>
       </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="21"/>
+      <c r="G6" s="14">
+        <v>1.6060000000000001</v>
+      </c>
+      <c r="H6" s="14">
+        <v>1.611</v>
+      </c>
+      <c r="I6" s="14">
+        <v>6600</v>
+      </c>
+      <c r="J6" s="14">
+        <f t="shared" si="1"/>
+        <v>10632.6</v>
+      </c>
     </row>
     <row r="7" spans="1:10" s="16" customFormat="1">
-      <c r="A7" s="26"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="18"/>
-      <c r="F7" s="6"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="C7" s="12">
+        <v>1.4370000000000001</v>
+      </c>
+      <c r="D7" s="18">
+        <v>1.4319999999999999</v>
+      </c>
+      <c r="E7" s="16">
+        <v>8400</v>
+      </c>
+      <c r="F7" s="6">
+        <f t="shared" si="0"/>
+        <v>12028.8</v>
+      </c>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
     </row>
@@ -1386,7 +1407,7 @@
         <v>15</v>
       </c>
       <c r="E10" s="3">
-        <v>25200</v>
+        <v>32800</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="20" customFormat="1">
@@ -1396,8 +1417,8 @@
         <v>16</v>
       </c>
       <c r="E11" s="20">
-        <f>5000+5500+6000+5400</f>
-        <v>21900</v>
+        <f>SUM(I3:I6)</f>
+        <v>22900</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="12"/>
@@ -1412,18 +1433,18 @@
       <c r="H12" s="12"/>
     </row>
     <row r="14" spans="1:10" ht="19.5">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
     </row>
     <row r="15" spans="1:10" ht="27.75" thickBot="1">
       <c r="A15" s="1" t="s">
@@ -1458,7 +1479,7 @@
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="24" t="s">
         <v>7</v>
       </c>
       <c r="B16" s="7">
@@ -1492,7 +1513,7 @@
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="26"/>
+      <c r="A17" s="27"/>
       <c r="B17" s="7">
         <v>0.93</v>
       </c>
@@ -1524,7 +1545,7 @@
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="26"/>
+      <c r="A18" s="27"/>
       <c r="B18" s="7">
         <v>0.86</v>
       </c>
@@ -1556,7 +1577,7 @@
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="26"/>
+      <c r="A19" s="27"/>
       <c r="B19" s="7">
         <v>0.79</v>
       </c>
@@ -1588,7 +1609,7 @@
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="26"/>
+      <c r="A20" s="27"/>
       <c r="B20" s="4">
         <v>0.72</v>
       </c>
@@ -1637,18 +1658,18 @@
       <c r="F24" s="19"/>
     </row>
     <row r="25" spans="1:10" ht="19.5">
-      <c r="A25" s="25" t="s">
+      <c r="A25" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
     </row>
     <row r="26" spans="1:10" ht="27.75" thickBot="1">
       <c r="A26" s="1" t="s">
@@ -1683,7 +1704,7 @@
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="24" t="s">
         <v>7</v>
       </c>
       <c r="B27" s="7">
@@ -1717,7 +1738,7 @@
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="24"/>
+      <c r="A28" s="25"/>
       <c r="B28" s="7">
         <v>0.95</v>
       </c>
@@ -1749,7 +1770,7 @@
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="24"/>
+      <c r="A29" s="25"/>
       <c r="B29" s="14">
         <v>0.9</v>
       </c>
@@ -1769,7 +1790,7 @@
       <c r="J29" s="8"/>
     </row>
     <row r="30" spans="1:10" s="20" customFormat="1">
-      <c r="A30" s="24"/>
+      <c r="A30" s="25"/>
       <c r="B30" s="14">
         <v>0.85</v>
       </c>
@@ -1791,7 +1812,7 @@
       <c r="J30" s="8"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="24"/>
+      <c r="A31" s="25"/>
     </row>
     <row r="32" spans="1:10">
       <c r="D32" s="12" t="s">
@@ -1811,18 +1832,18 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="19.5">
-      <c r="A35" s="25" t="s">
+      <c r="A35" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="25"/>
-      <c r="J35" s="25"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
     </row>
     <row r="36" spans="1:10" ht="27.75" thickBot="1">
       <c r="A36" s="1" t="s">
@@ -1857,22 +1878,22 @@
       </c>
     </row>
     <row r="37" spans="1:10" s="20" customFormat="1" ht="14.25" thickBot="1">
-      <c r="A37" s="23" t="s">
+      <c r="A37" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="27">
+      <c r="B37" s="22">
         <v>1</v>
       </c>
-      <c r="C37" s="27">
+      <c r="C37" s="22">
         <v>1.0349999999999999</v>
       </c>
-      <c r="D37" s="27">
+      <c r="D37" s="22">
         <v>1.03</v>
       </c>
-      <c r="E37" s="27">
+      <c r="E37" s="22">
         <v>9700</v>
       </c>
-      <c r="F37" s="28">
+      <c r="F37" s="23">
         <f>D37*E37</f>
         <v>9991</v>
       </c>
@@ -1891,7 +1912,7 @@
       </c>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="24"/>
+      <c r="A38" s="25"/>
       <c r="B38" s="14">
         <v>0.9</v>
       </c>
@@ -1904,7 +1925,7 @@
       <c r="E38" s="14">
         <v>11900</v>
       </c>
-      <c r="F38" s="22">
+      <c r="F38" s="21">
         <f>D38*E38</f>
         <v>11031.300000000001</v>
       </c>
@@ -1914,7 +1935,7 @@
       <c r="J38" s="14"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="24"/>
+      <c r="A39" s="25"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
       <c r="D39" s="14"/>
@@ -1924,7 +1945,7 @@
       <c r="J39" s="8"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="24"/>
+      <c r="A40" s="25"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
       <c r="D40" s="14"/>
@@ -1934,7 +1955,7 @@
       <c r="J40" s="8"/>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="24"/>
+      <c r="A41" s="25"/>
       <c r="E41" s="20"/>
       <c r="I41" s="20"/>
       <c r="J41" s="20"/>
@@ -1963,18 +1984,18 @@
       <c r="J43" s="20"/>
     </row>
     <row r="45" spans="1:10" ht="19.5">
-      <c r="A45" s="25" t="s">
+      <c r="A45" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B45" s="25"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="25"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="25"/>
-      <c r="I45" s="25"/>
-      <c r="J45" s="25"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="26"/>
+      <c r="I45" s="26"/>
+      <c r="J45" s="26"/>
     </row>
     <row r="46" spans="1:10" ht="27.75" thickBot="1">
       <c r="A46" s="1" t="s">
@@ -2009,7 +2030,7 @@
       </c>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="23" t="s">
+      <c r="A47" s="24" t="s">
         <v>7</v>
       </c>
       <c r="B47" s="14">
@@ -2024,7 +2045,7 @@
       <c r="E47" s="14">
         <v>5300</v>
       </c>
-      <c r="F47" s="22">
+      <c r="F47" s="21">
         <f>D47*E47</f>
         <v>10070</v>
       </c>
@@ -2034,7 +2055,7 @@
       <c r="J47" s="14"/>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="24"/>
+      <c r="A48" s="25"/>
       <c r="B48" s="7"/>
       <c r="C48" s="11"/>
       <c r="D48" s="11"/>
@@ -2046,7 +2067,7 @@
       <c r="J48" s="14"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="24"/>
+      <c r="A49" s="25"/>
       <c r="B49" s="14"/>
       <c r="C49" s="14"/>
       <c r="D49" s="14"/>
@@ -2056,7 +2077,7 @@
       <c r="J49" s="8"/>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="24"/>
+      <c r="A50" s="25"/>
       <c r="B50" s="14"/>
       <c r="C50" s="14"/>
       <c r="D50" s="14"/>
@@ -2066,7 +2087,7 @@
       <c r="J50" s="8"/>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="24"/>
+      <c r="A51" s="25"/>
       <c r="E51" s="20"/>
       <c r="I51" s="20"/>
       <c r="J51" s="20"/>
@@ -2095,18 +2116,18 @@
       <c r="J53" s="20"/>
     </row>
     <row r="55" spans="1:10" ht="19.5">
-      <c r="A55" s="25" t="s">
+      <c r="A55" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B55" s="25"/>
-      <c r="C55" s="25"/>
-      <c r="D55" s="25"/>
-      <c r="E55" s="25"/>
-      <c r="F55" s="25"/>
-      <c r="G55" s="25"/>
-      <c r="H55" s="25"/>
-      <c r="I55" s="25"/>
-      <c r="J55" s="25"/>
+      <c r="B55" s="26"/>
+      <c r="C55" s="26"/>
+      <c r="D55" s="26"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="26"/>
+      <c r="G55" s="26"/>
+      <c r="H55" s="26"/>
+      <c r="I55" s="26"/>
+      <c r="J55" s="26"/>
     </row>
     <row r="56" spans="1:10" ht="27.75" thickBot="1">
       <c r="A56" s="1" t="s">
@@ -2141,7 +2162,7 @@
       </c>
     </row>
     <row r="57" spans="1:10">
-      <c r="A57" s="23" t="s">
+      <c r="A57" s="24" t="s">
         <v>7</v>
       </c>
       <c r="B57" s="14">
@@ -2156,7 +2177,7 @@
       <c r="E57" s="14">
         <v>9800</v>
       </c>
-      <c r="F57" s="22">
+      <c r="F57" s="21">
         <f>D57*E57</f>
         <v>9996</v>
       </c>
@@ -2166,7 +2187,7 @@
       <c r="J57" s="14"/>
     </row>
     <row r="58" spans="1:10">
-      <c r="A58" s="24"/>
+      <c r="A58" s="25"/>
       <c r="B58" s="7"/>
       <c r="C58" s="11"/>
       <c r="D58" s="11"/>
@@ -2178,7 +2199,7 @@
       <c r="J58" s="14"/>
     </row>
     <row r="59" spans="1:10">
-      <c r="A59" s="24"/>
+      <c r="A59" s="25"/>
       <c r="B59" s="14"/>
       <c r="C59" s="14"/>
       <c r="D59" s="14"/>
@@ -2188,7 +2209,7 @@
       <c r="J59" s="8"/>
     </row>
     <row r="60" spans="1:10">
-      <c r="A60" s="24"/>
+      <c r="A60" s="25"/>
       <c r="B60" s="14"/>
       <c r="C60" s="14"/>
       <c r="D60" s="14"/>
@@ -2198,7 +2219,7 @@
       <c r="J60" s="8"/>
     </row>
     <row r="61" spans="1:10">
-      <c r="A61" s="24"/>
+      <c r="A61" s="25"/>
       <c r="E61" s="20"/>
       <c r="I61" s="20"/>
       <c r="J61" s="20"/>
@@ -2228,18 +2249,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="A45:J45"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="A55:J55"/>
     <mergeCell ref="A27:A31"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A14:J14"/>
     <mergeCell ref="A25:J25"/>
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="A16:A20"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="A45:J45"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="A55:J55"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/0-网格/00-网格操作.xlsx
+++ b/0-网格/00-网格操作.xlsx
@@ -826,7 +826,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="16" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="16" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="16" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -841,7 +841,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="16" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1167,8 +1167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1342,7 +1342,7 @@
       <c r="E6" s="22">
         <v>7600</v>
       </c>
-      <c r="F6" s="28">
+      <c r="F6" s="23">
         <f t="shared" si="0"/>
         <v>11552</v>
       </c>
@@ -1881,54 +1881,34 @@
       <c r="A37" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="22">
+      <c r="B37" s="14">
         <v>1</v>
       </c>
-      <c r="C37" s="22">
+      <c r="C37" s="14">
         <v>1.0349999999999999</v>
       </c>
-      <c r="D37" s="22">
+      <c r="D37" s="14">
         <v>1.03</v>
       </c>
-      <c r="E37" s="22">
+      <c r="E37" s="14">
         <v>9700</v>
       </c>
-      <c r="F37" s="23">
+      <c r="F37" s="28">
         <f>D37*E37</f>
         <v>9991</v>
       </c>
-      <c r="G37" s="14">
-        <v>1.1279999999999999</v>
-      </c>
-      <c r="H37" s="14">
-        <v>1.133</v>
-      </c>
-      <c r="I37" s="14">
-        <v>8700</v>
-      </c>
-      <c r="J37" s="14">
-        <f>H37*I37</f>
-        <v>9857.1</v>
-      </c>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="25"/>
-      <c r="B38" s="14">
-        <v>0.9</v>
-      </c>
-      <c r="C38" s="14">
-        <v>0.93200000000000005</v>
-      </c>
-      <c r="D38" s="14">
-        <v>0.92700000000000005</v>
-      </c>
-      <c r="E38" s="14">
-        <v>11900</v>
-      </c>
-      <c r="F38" s="21">
-        <f>D38*E38</f>
-        <v>11031.300000000001</v>
-      </c>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="21"/>
       <c r="G38" s="14"/>
       <c r="H38" s="14"/>
       <c r="I38" s="14"/>
@@ -1966,7 +1946,7 @@
         <v>15</v>
       </c>
       <c r="E42" s="20">
-        <v>9800</v>
+        <v>2000</v>
       </c>
       <c r="I42" s="20"/>
       <c r="J42" s="20"/>
@@ -1978,7 +1958,7 @@
       </c>
       <c r="E43" s="20">
         <f>SUM(I37:I38)</f>
-        <v>8700</v>
+        <v>0</v>
       </c>
       <c r="I43" s="20"/>
       <c r="J43" s="20"/>
@@ -2249,18 +2229,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A16:A20"/>
     <mergeCell ref="A57:A61"/>
     <mergeCell ref="A35:J35"/>
     <mergeCell ref="A37:A41"/>
     <mergeCell ref="A45:J45"/>
     <mergeCell ref="A47:A51"/>
     <mergeCell ref="A55:J55"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A16:A20"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/0-网格/00-网格操作.xlsx
+++ b/0-网格/00-网格操作.xlsx
@@ -756,7 +756,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -829,6 +829,9 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="16" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -841,7 +844,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="16" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1167,8 +1173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1185,18 +1191,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
     </row>
     <row r="2" spans="1:10" ht="27.75" thickBot="1">
       <c r="A2" s="1" t="s">
@@ -1231,7 +1237,7 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="25" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="7">
@@ -1265,7 +1271,7 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="27"/>
+      <c r="A4" s="28"/>
       <c r="B4" s="7">
         <v>0.95</v>
       </c>
@@ -1297,7 +1303,7 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="27"/>
+      <c r="A5" s="28"/>
       <c r="B5" s="7">
         <v>0.9</v>
       </c>
@@ -1329,7 +1335,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" s="13" customFormat="1">
-      <c r="A6" s="27"/>
+      <c r="A6" s="28"/>
       <c r="B6" s="22">
         <v>0.85</v>
       </c>
@@ -1361,7 +1367,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" s="16" customFormat="1">
-      <c r="A7" s="27"/>
+      <c r="A7" s="28"/>
       <c r="B7" s="4">
         <v>0.8</v>
       </c>
@@ -1433,18 +1439,18 @@
       <c r="H12" s="12"/>
     </row>
     <row r="14" spans="1:10" ht="19.5">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
     </row>
     <row r="15" spans="1:10" ht="27.75" thickBot="1">
       <c r="A15" s="1" t="s">
@@ -1479,7 +1485,7 @@
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="25" t="s">
         <v>7</v>
       </c>
       <c r="B16" s="7">
@@ -1513,7 +1519,7 @@
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="27"/>
+      <c r="A17" s="28"/>
       <c r="B17" s="7">
         <v>0.93</v>
       </c>
@@ -1545,7 +1551,7 @@
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="27"/>
+      <c r="A18" s="28"/>
       <c r="B18" s="7">
         <v>0.86</v>
       </c>
@@ -1577,7 +1583,7 @@
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="27"/>
+      <c r="A19" s="28"/>
       <c r="B19" s="7">
         <v>0.79</v>
       </c>
@@ -1609,7 +1615,7 @@
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="27"/>
+      <c r="A20" s="28"/>
       <c r="B20" s="4">
         <v>0.72</v>
       </c>
@@ -1658,18 +1664,18 @@
       <c r="F24" s="19"/>
     </row>
     <row r="25" spans="1:10" ht="19.5">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
     </row>
     <row r="26" spans="1:10" ht="27.75" thickBot="1">
       <c r="A26" s="1" t="s">
@@ -1704,7 +1710,7 @@
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="25" t="s">
         <v>7</v>
       </c>
       <c r="B27" s="7">
@@ -1738,7 +1744,7 @@
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="25"/>
+      <c r="A28" s="26"/>
       <c r="B28" s="7">
         <v>0.95</v>
       </c>
@@ -1770,7 +1776,7 @@
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="25"/>
+      <c r="A29" s="26"/>
       <c r="B29" s="14">
         <v>0.9</v>
       </c>
@@ -1790,7 +1796,7 @@
       <c r="J29" s="8"/>
     </row>
     <row r="30" spans="1:10" s="20" customFormat="1">
-      <c r="A30" s="25"/>
+      <c r="A30" s="26"/>
       <c r="B30" s="14">
         <v>0.85</v>
       </c>
@@ -1812,7 +1818,7 @@
       <c r="J30" s="8"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="25"/>
+      <c r="A31" s="26"/>
     </row>
     <row r="32" spans="1:10">
       <c r="D32" s="12" t="s">
@@ -1832,18 +1838,18 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="19.5">
-      <c r="A35" s="26" t="s">
+      <c r="A35" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="26"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="27"/>
     </row>
     <row r="36" spans="1:10" ht="27.75" thickBot="1">
       <c r="A36" s="1" t="s">
@@ -1878,7 +1884,7 @@
       </c>
     </row>
     <row r="37" spans="1:10" s="20" customFormat="1" ht="14.25" thickBot="1">
-      <c r="A37" s="24" t="s">
+      <c r="A37" s="25" t="s">
         <v>7</v>
       </c>
       <c r="B37" s="14">
@@ -1893,7 +1899,7 @@
       <c r="E37" s="14">
         <v>9700</v>
       </c>
-      <c r="F37" s="28">
+      <c r="F37" s="24">
         <f>D37*E37</f>
         <v>9991</v>
       </c>
@@ -1903,7 +1909,7 @@
       <c r="J37" s="14"/>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="25"/>
+      <c r="A38" s="26"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
       <c r="D38" s="14"/>
@@ -1915,7 +1921,7 @@
       <c r="J38" s="14"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="25"/>
+      <c r="A39" s="26"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
       <c r="D39" s="14"/>
@@ -1925,7 +1931,7 @@
       <c r="J39" s="8"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="25"/>
+      <c r="A40" s="26"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
       <c r="D40" s="14"/>
@@ -1935,7 +1941,7 @@
       <c r="J40" s="8"/>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="25"/>
+      <c r="A41" s="26"/>
       <c r="E41" s="20"/>
       <c r="I41" s="20"/>
       <c r="J41" s="20"/>
@@ -1964,18 +1970,18 @@
       <c r="J43" s="20"/>
     </row>
     <row r="45" spans="1:10" ht="19.5">
-      <c r="A45" s="26" t="s">
+      <c r="A45" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B45" s="26"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="26"/>
-      <c r="G45" s="26"/>
-      <c r="H45" s="26"/>
-      <c r="I45" s="26"/>
-      <c r="J45" s="26"/>
+      <c r="B45" s="27"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="27"/>
     </row>
     <row r="46" spans="1:10" ht="27.75" thickBot="1">
       <c r="A46" s="1" t="s">
@@ -2009,45 +2015,65 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
-      <c r="A47" s="24" t="s">
+    <row r="47" spans="1:10" ht="14.25" thickBot="1">
+      <c r="A47" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B47" s="14">
+      <c r="B47" s="22">
         <v>1</v>
       </c>
-      <c r="C47" s="14">
+      <c r="C47" s="22">
         <v>1.905</v>
       </c>
-      <c r="D47" s="14">
+      <c r="D47" s="22">
         <v>1.9</v>
       </c>
-      <c r="E47" s="14">
+      <c r="E47" s="22">
         <v>5300</v>
       </c>
-      <c r="F47" s="21">
+      <c r="F47" s="29">
         <f>D47*E47</f>
         <v>10070</v>
       </c>
-      <c r="G47" s="14"/>
-      <c r="H47" s="14"/>
-      <c r="I47" s="14"/>
-      <c r="J47" s="14"/>
+      <c r="G47" s="14">
+        <v>1.99</v>
+      </c>
+      <c r="H47" s="14">
+        <v>1.9950000000000001</v>
+      </c>
+      <c r="I47" s="14">
+        <v>4800</v>
+      </c>
+      <c r="J47" s="14">
+        <f>I47*H47</f>
+        <v>9576</v>
+      </c>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="25"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="9"/>
+      <c r="A48" s="26"/>
+      <c r="B48" s="30">
+        <v>0.95</v>
+      </c>
+      <c r="C48" s="30">
+        <v>1.81</v>
+      </c>
+      <c r="D48" s="30">
+        <v>1.8049999999999999</v>
+      </c>
+      <c r="E48" s="30">
+        <v>5800</v>
+      </c>
+      <c r="F48" s="29">
+        <f>D48*E48</f>
+        <v>10469</v>
+      </c>
       <c r="G48" s="14"/>
       <c r="H48" s="14"/>
       <c r="I48" s="14"/>
       <c r="J48" s="14"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="25"/>
+      <c r="A49" s="26"/>
       <c r="B49" s="14"/>
       <c r="C49" s="14"/>
       <c r="D49" s="14"/>
@@ -2057,7 +2083,7 @@
       <c r="J49" s="8"/>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="25"/>
+      <c r="A50" s="26"/>
       <c r="B50" s="14"/>
       <c r="C50" s="14"/>
       <c r="D50" s="14"/>
@@ -2067,7 +2093,7 @@
       <c r="J50" s="8"/>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="25"/>
+      <c r="A51" s="26"/>
       <c r="E51" s="20"/>
       <c r="I51" s="20"/>
       <c r="J51" s="20"/>
@@ -2090,24 +2116,24 @@
       </c>
       <c r="E53" s="20">
         <f>SUM(I47:I48)</f>
-        <v>0</v>
+        <v>4800</v>
       </c>
       <c r="I53" s="20"/>
       <c r="J53" s="20"/>
     </row>
     <row r="55" spans="1:10" ht="19.5">
-      <c r="A55" s="26" t="s">
+      <c r="A55" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="B55" s="26"/>
-      <c r="C55" s="26"/>
-      <c r="D55" s="26"/>
-      <c r="E55" s="26"/>
-      <c r="F55" s="26"/>
-      <c r="G55" s="26"/>
-      <c r="H55" s="26"/>
-      <c r="I55" s="26"/>
-      <c r="J55" s="26"/>
+      <c r="B55" s="27"/>
+      <c r="C55" s="27"/>
+      <c r="D55" s="27"/>
+      <c r="E55" s="27"/>
+      <c r="F55" s="27"/>
+      <c r="G55" s="27"/>
+      <c r="H55" s="27"/>
+      <c r="I55" s="27"/>
+      <c r="J55" s="27"/>
     </row>
     <row r="56" spans="1:10" ht="27.75" thickBot="1">
       <c r="A56" s="1" t="s">
@@ -2142,7 +2168,7 @@
       </c>
     </row>
     <row r="57" spans="1:10">
-      <c r="A57" s="24" t="s">
+      <c r="A57" s="25" t="s">
         <v>7</v>
       </c>
       <c r="B57" s="14">
@@ -2167,7 +2193,7 @@
       <c r="J57" s="14"/>
     </row>
     <row r="58" spans="1:10">
-      <c r="A58" s="25"/>
+      <c r="A58" s="26"/>
       <c r="B58" s="7"/>
       <c r="C58" s="11"/>
       <c r="D58" s="11"/>
@@ -2179,7 +2205,7 @@
       <c r="J58" s="14"/>
     </row>
     <row r="59" spans="1:10">
-      <c r="A59" s="25"/>
+      <c r="A59" s="26"/>
       <c r="B59" s="14"/>
       <c r="C59" s="14"/>
       <c r="D59" s="14"/>
@@ -2189,7 +2215,7 @@
       <c r="J59" s="8"/>
     </row>
     <row r="60" spans="1:10">
-      <c r="A60" s="25"/>
+      <c r="A60" s="26"/>
       <c r="B60" s="14"/>
       <c r="C60" s="14"/>
       <c r="D60" s="14"/>
@@ -2199,7 +2225,7 @@
       <c r="J60" s="8"/>
     </row>
     <row r="61" spans="1:10">
-      <c r="A61" s="25"/>
+      <c r="A61" s="26"/>
       <c r="E61" s="20"/>
       <c r="I61" s="20"/>
       <c r="J61" s="20"/>
@@ -2229,18 +2255,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="A45:J45"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="A55:J55"/>
     <mergeCell ref="A27:A31"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A14:J14"/>
     <mergeCell ref="A25:J25"/>
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="A16:A20"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="A45:J45"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="A55:J55"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/0-网格/00-网格操作.xlsx
+++ b/0-网格/00-网格操作.xlsx
@@ -756,7 +756,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -832,6 +832,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="16" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -843,12 +852,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="16" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1173,8 +1176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1191,18 +1194,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
     </row>
     <row r="2" spans="1:10" ht="27.75" thickBot="1">
       <c r="A2" s="1" t="s">
@@ -1237,7 +1240,7 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="28" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="7">
@@ -1271,7 +1274,7 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="28"/>
+      <c r="A4" s="31"/>
       <c r="B4" s="7">
         <v>0.95</v>
       </c>
@@ -1303,7 +1306,7 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="28"/>
+      <c r="A5" s="31"/>
       <c r="B5" s="7">
         <v>0.9</v>
       </c>
@@ -1335,7 +1338,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" s="13" customFormat="1">
-      <c r="A6" s="28"/>
+      <c r="A6" s="31"/>
       <c r="B6" s="22">
         <v>0.85</v>
       </c>
@@ -1367,7 +1370,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" s="16" customFormat="1">
-      <c r="A7" s="28"/>
+      <c r="A7" s="31"/>
       <c r="B7" s="4">
         <v>0.8</v>
       </c>
@@ -1439,18 +1442,18 @@
       <c r="H12" s="12"/>
     </row>
     <row r="14" spans="1:10" ht="19.5">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
     </row>
     <row r="15" spans="1:10" ht="27.75" thickBot="1">
       <c r="A15" s="1" t="s">
@@ -1485,7 +1488,7 @@
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="28" t="s">
         <v>7</v>
       </c>
       <c r="B16" s="7">
@@ -1519,7 +1522,7 @@
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="28"/>
+      <c r="A17" s="31"/>
       <c r="B17" s="7">
         <v>0.93</v>
       </c>
@@ -1551,7 +1554,7 @@
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="28"/>
+      <c r="A18" s="31"/>
       <c r="B18" s="7">
         <v>0.86</v>
       </c>
@@ -1568,70 +1571,42 @@
         <f t="shared" si="2"/>
         <v>11396</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G18" s="12">
         <v>0.79500000000000004</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H18" s="12">
         <v>0.8</v>
       </c>
-      <c r="I18" s="8">
-        <v>4800</v>
+      <c r="I18" s="25">
+        <v>7100</v>
       </c>
       <c r="J18" s="8">
         <f>H18*I18</f>
-        <v>3840</v>
+        <v>5680</v>
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="28"/>
-      <c r="B19" s="7">
+      <c r="A19" s="31"/>
+      <c r="B19" s="4">
         <v>0.79</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="12">
         <v>0.68400000000000005</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="12">
         <v>0.67900000000000005</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="25">
         <v>17800</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="6">
         <f t="shared" si="2"/>
         <v>12086.2</v>
       </c>
-      <c r="G19" s="12">
-        <v>0.73499999999999999</v>
-      </c>
-      <c r="H19" s="12">
-        <v>0.74</v>
-      </c>
-      <c r="I19" s="3">
-        <v>4500</v>
-      </c>
-      <c r="J19" s="8">
-        <f>H19*I19</f>
-        <v>3330</v>
-      </c>
+      <c r="J19" s="8"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="28"/>
-      <c r="B20" s="4">
-        <v>0.72</v>
-      </c>
-      <c r="C20" s="12">
-        <v>0.624</v>
-      </c>
-      <c r="D20" s="12">
-        <v>0.61899999999999999</v>
-      </c>
-      <c r="E20" s="3">
-        <v>20700</v>
-      </c>
-      <c r="F20" s="6">
-        <f t="shared" si="2"/>
-        <v>12813.3</v>
-      </c>
+      <c r="A20" s="31"/>
     </row>
     <row r="22" spans="1:10" s="20" customFormat="1">
       <c r="B22" s="4"/>
@@ -1640,7 +1615,7 @@
         <v>15</v>
       </c>
       <c r="E22" s="20">
-        <v>38200</v>
+        <v>33700</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="12"/>
@@ -1654,7 +1629,7 @@
       </c>
       <c r="E23" s="20">
         <f>SUM(I16:I19)</f>
-        <v>31700</v>
+        <v>29500</v>
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="12"/>
@@ -1664,18 +1639,18 @@
       <c r="F24" s="19"/>
     </row>
     <row r="25" spans="1:10" ht="19.5">
-      <c r="A25" s="27" t="s">
+      <c r="A25" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
     </row>
     <row r="26" spans="1:10" ht="27.75" thickBot="1">
       <c r="A26" s="1" t="s">
@@ -1710,7 +1685,7 @@
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="28" t="s">
         <v>7</v>
       </c>
       <c r="B27" s="7">
@@ -1744,7 +1719,7 @@
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="26"/>
+      <c r="A28" s="29"/>
       <c r="B28" s="7">
         <v>0.95</v>
       </c>
@@ -1776,7 +1751,7 @@
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="26"/>
+      <c r="A29" s="29"/>
       <c r="B29" s="14">
         <v>0.9</v>
       </c>
@@ -1796,7 +1771,7 @@
       <c r="J29" s="8"/>
     </row>
     <row r="30" spans="1:10" s="20" customFormat="1">
-      <c r="A30" s="26"/>
+      <c r="A30" s="29"/>
       <c r="B30" s="14">
         <v>0.85</v>
       </c>
@@ -1818,7 +1793,7 @@
       <c r="J30" s="8"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="26"/>
+      <c r="A31" s="29"/>
     </row>
     <row r="32" spans="1:10">
       <c r="D32" s="12" t="s">
@@ -1838,18 +1813,18 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="19.5">
-      <c r="A35" s="27" t="s">
+      <c r="A35" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="27"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="30"/>
     </row>
     <row r="36" spans="1:10" ht="27.75" thickBot="1">
       <c r="A36" s="1" t="s">
@@ -1884,7 +1859,7 @@
       </c>
     </row>
     <row r="37" spans="1:10" s="20" customFormat="1" ht="14.25" thickBot="1">
-      <c r="A37" s="25" t="s">
+      <c r="A37" s="28" t="s">
         <v>7</v>
       </c>
       <c r="B37" s="14">
@@ -1909,7 +1884,7 @@
       <c r="J37" s="14"/>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="26"/>
+      <c r="A38" s="29"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
       <c r="D38" s="14"/>
@@ -1921,7 +1896,7 @@
       <c r="J38" s="14"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="26"/>
+      <c r="A39" s="29"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
       <c r="D39" s="14"/>
@@ -1931,7 +1906,7 @@
       <c r="J39" s="8"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="26"/>
+      <c r="A40" s="29"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
       <c r="D40" s="14"/>
@@ -1941,7 +1916,7 @@
       <c r="J40" s="8"/>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="26"/>
+      <c r="A41" s="29"/>
       <c r="E41" s="20"/>
       <c r="I41" s="20"/>
       <c r="J41" s="20"/>
@@ -1970,18 +1945,18 @@
       <c r="J43" s="20"/>
     </row>
     <row r="45" spans="1:10" ht="19.5">
-      <c r="A45" s="27" t="s">
+      <c r="A45" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B45" s="27"/>
-      <c r="C45" s="27"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="27"/>
-      <c r="H45" s="27"/>
-      <c r="I45" s="27"/>
-      <c r="J45" s="27"/>
+      <c r="B45" s="30"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="30"/>
+      <c r="J45" s="30"/>
     </row>
     <row r="46" spans="1:10" ht="27.75" thickBot="1">
       <c r="A46" s="1" t="s">
@@ -2016,7 +1991,7 @@
       </c>
     </row>
     <row r="47" spans="1:10" ht="14.25" thickBot="1">
-      <c r="A47" s="25" t="s">
+      <c r="A47" s="28" t="s">
         <v>7</v>
       </c>
       <c r="B47" s="22">
@@ -2031,7 +2006,7 @@
       <c r="E47" s="22">
         <v>5300</v>
       </c>
-      <c r="F47" s="29">
+      <c r="F47" s="26">
         <f>D47*E47</f>
         <v>10070</v>
       </c>
@@ -2050,20 +2025,20 @@
       </c>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="26"/>
-      <c r="B48" s="30">
+      <c r="A48" s="29"/>
+      <c r="B48" s="27">
         <v>0.95</v>
       </c>
-      <c r="C48" s="30">
+      <c r="C48" s="27">
         <v>1.81</v>
       </c>
-      <c r="D48" s="30">
+      <c r="D48" s="27">
         <v>1.8049999999999999</v>
       </c>
-      <c r="E48" s="30">
+      <c r="E48" s="27">
         <v>5800</v>
       </c>
-      <c r="F48" s="29">
+      <c r="F48" s="26">
         <f>D48*E48</f>
         <v>10469</v>
       </c>
@@ -2073,7 +2048,7 @@
       <c r="J48" s="14"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="26"/>
+      <c r="A49" s="29"/>
       <c r="B49" s="14"/>
       <c r="C49" s="14"/>
       <c r="D49" s="14"/>
@@ -2083,7 +2058,7 @@
       <c r="J49" s="8"/>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="26"/>
+      <c r="A50" s="29"/>
       <c r="B50" s="14"/>
       <c r="C50" s="14"/>
       <c r="D50" s="14"/>
@@ -2093,7 +2068,7 @@
       <c r="J50" s="8"/>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="26"/>
+      <c r="A51" s="29"/>
       <c r="E51" s="20"/>
       <c r="I51" s="20"/>
       <c r="J51" s="20"/>
@@ -2122,18 +2097,18 @@
       <c r="J53" s="20"/>
     </row>
     <row r="55" spans="1:10" ht="19.5">
-      <c r="A55" s="27" t="s">
+      <c r="A55" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B55" s="27"/>
-      <c r="C55" s="27"/>
-      <c r="D55" s="27"/>
-      <c r="E55" s="27"/>
-      <c r="F55" s="27"/>
-      <c r="G55" s="27"/>
-      <c r="H55" s="27"/>
-      <c r="I55" s="27"/>
-      <c r="J55" s="27"/>
+      <c r="B55" s="30"/>
+      <c r="C55" s="30"/>
+      <c r="D55" s="30"/>
+      <c r="E55" s="30"/>
+      <c r="F55" s="30"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="30"/>
+      <c r="I55" s="30"/>
+      <c r="J55" s="30"/>
     </row>
     <row r="56" spans="1:10" ht="27.75" thickBot="1">
       <c r="A56" s="1" t="s">
@@ -2168,7 +2143,7 @@
       </c>
     </row>
     <row r="57" spans="1:10">
-      <c r="A57" s="25" t="s">
+      <c r="A57" s="28" t="s">
         <v>7</v>
       </c>
       <c r="B57" s="14">
@@ -2193,7 +2168,7 @@
       <c r="J57" s="14"/>
     </row>
     <row r="58" spans="1:10">
-      <c r="A58" s="26"/>
+      <c r="A58" s="29"/>
       <c r="B58" s="7"/>
       <c r="C58" s="11"/>
       <c r="D58" s="11"/>
@@ -2205,7 +2180,7 @@
       <c r="J58" s="14"/>
     </row>
     <row r="59" spans="1:10">
-      <c r="A59" s="26"/>
+      <c r="A59" s="29"/>
       <c r="B59" s="14"/>
       <c r="C59" s="14"/>
       <c r="D59" s="14"/>
@@ -2215,7 +2190,7 @@
       <c r="J59" s="8"/>
     </row>
     <row r="60" spans="1:10">
-      <c r="A60" s="26"/>
+      <c r="A60" s="29"/>
       <c r="B60" s="14"/>
       <c r="C60" s="14"/>
       <c r="D60" s="14"/>
@@ -2225,7 +2200,7 @@
       <c r="J60" s="8"/>
     </row>
     <row r="61" spans="1:10">
-      <c r="A61" s="26"/>
+      <c r="A61" s="29"/>
       <c r="E61" s="20"/>
       <c r="I61" s="20"/>
       <c r="J61" s="20"/>
@@ -2255,18 +2230,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A16:A20"/>
     <mergeCell ref="A57:A61"/>
     <mergeCell ref="A35:J35"/>
     <mergeCell ref="A37:A41"/>
     <mergeCell ref="A45:J45"/>
     <mergeCell ref="A47:A51"/>
     <mergeCell ref="A55:J55"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A16:A20"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/0-网格/00-网格操作.xlsx
+++ b/0-网格/00-网格操作.xlsx
@@ -756,7 +756,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -840,6 +840,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1174,10 +1177,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J63"/>
+  <dimension ref="A1:J64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1194,18 +1197,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
     </row>
     <row r="2" spans="1:10" ht="27.75" thickBot="1">
       <c r="A2" s="1" t="s">
@@ -1240,7 +1243,7 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="29" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="7">
@@ -1274,7 +1277,7 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="31"/>
+      <c r="A4" s="32"/>
       <c r="B4" s="7">
         <v>0.95</v>
       </c>
@@ -1288,7 +1291,7 @@
         <v>6200</v>
       </c>
       <c r="F4" s="9">
-        <f t="shared" ref="F4:F8" si="0">D4*E4</f>
+        <f t="shared" ref="F4:F9" si="0">D4*E4</f>
         <v>10546.2</v>
       </c>
       <c r="G4" s="11">
@@ -1306,7 +1309,7 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="31"/>
+      <c r="A5" s="32"/>
       <c r="B5" s="7">
         <v>0.9</v>
       </c>
@@ -1333,12 +1336,12 @@
         <v>5800</v>
       </c>
       <c r="J5" s="8">
-        <f t="shared" ref="J5:J6" si="1">H5*I5</f>
+        <f t="shared" ref="J5:J7" si="1">H5*I5</f>
         <v>9865.8000000000011</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="13" customFormat="1">
-      <c r="A6" s="31"/>
+      <c r="A6" s="32"/>
       <c r="B6" s="22">
         <v>0.85</v>
       </c>
@@ -1355,558 +1358,580 @@
         <f t="shared" si="0"/>
         <v>11552</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="11">
         <v>1.6060000000000001</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="11">
         <v>1.611</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I6" s="8">
         <v>6600</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J6" s="8">
         <f t="shared" si="1"/>
         <v>10632.6</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="16" customFormat="1">
-      <c r="A7" s="31"/>
+      <c r="A7" s="32"/>
       <c r="B7" s="4">
         <v>0.8</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="11">
         <v>1.4370000000000001</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="11">
         <v>1.4319999999999999</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="8">
         <v>8400</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="8">
         <f t="shared" si="0"/>
         <v>12028.8</v>
       </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="3" t="s">
+      <c r="G7" s="12">
+        <v>1.5169999999999999</v>
+      </c>
+      <c r="H7" s="12">
+        <v>1.522</v>
+      </c>
+      <c r="I7" s="16">
+        <v>6900</v>
+      </c>
+      <c r="J7" s="16">
+        <f t="shared" si="1"/>
+        <v>10501.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="28" customFormat="1">
+      <c r="A8" s="32"/>
+      <c r="B8" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="C8" s="12">
+        <v>1.3480000000000001</v>
+      </c>
+      <c r="D8" s="18">
+        <v>1.343</v>
+      </c>
+      <c r="E8" s="28">
+        <v>9300</v>
+      </c>
+      <c r="F8" s="6">
+        <f t="shared" si="0"/>
+        <v>12489.9</v>
+      </c>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B9" s="7">
         <v>0.9</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C9" s="11">
         <v>1.6160000000000001</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D9" s="17">
         <v>1.52</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E9" s="8">
         <v>6800</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F9" s="9">
         <f t="shared" si="0"/>
         <v>10336</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="D10" s="12" t="s">
+    <row r="11" spans="1:10">
+      <c r="D11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E11" s="3">
         <v>32800</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" s="20" customFormat="1">
-      <c r="B11" s="4"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="20">
-        <f>SUM(I3:I6)</f>
-        <v>22900</v>
-      </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
     </row>
     <row r="12" spans="1:10" s="20" customFormat="1">
       <c r="B12" s="4"/>
       <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
+      <c r="D12" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="20">
+        <f>SUM(I3:I6)</f>
+        <v>22900</v>
+      </c>
       <c r="F12" s="6"/>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
     </row>
-    <row r="14" spans="1:10" ht="19.5">
-      <c r="A14" s="30" t="s">
+    <row r="13" spans="1:10" s="20" customFormat="1">
+      <c r="B13" s="4"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+    </row>
+    <row r="15" spans="1:10" ht="19.5">
+      <c r="A15" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-    </row>
-    <row r="15" spans="1:10" ht="27.75" thickBot="1">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+    </row>
+    <row r="16" spans="1:10" ht="27.75" thickBot="1">
+      <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C16" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D16" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F16" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="G16" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="H16" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="J16" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="28" t="s">
+    <row r="17" spans="1:10">
+      <c r="A17" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B17" s="7">
         <v>1</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C17" s="11">
         <v>0.86499999999999999</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D17" s="11">
         <v>0.86</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E17" s="8">
         <v>2400</v>
       </c>
-      <c r="F16" s="9">
-        <f>D16*E16</f>
+      <c r="F17" s="9">
+        <f>D17*E17</f>
         <v>2064</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G17" s="11">
         <v>0.91500000000000004</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H17" s="11">
         <v>0.92</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I17" s="8">
         <v>10500</v>
-      </c>
-      <c r="J16" s="8">
-        <f>H16*I16</f>
-        <v>9660</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="31"/>
-      <c r="B17" s="7">
-        <v>0.93</v>
-      </c>
-      <c r="C17" s="11">
-        <v>0.80500000000000005</v>
-      </c>
-      <c r="D17" s="11">
-        <v>0.8</v>
-      </c>
-      <c r="E17" s="8">
-        <v>2600</v>
-      </c>
-      <c r="F17" s="9">
-        <f t="shared" ref="F17:F20" si="2">D17*E17</f>
-        <v>2080</v>
-      </c>
-      <c r="G17" s="11">
-        <v>0.85499999999999998</v>
-      </c>
-      <c r="H17" s="11">
-        <v>0.86</v>
-      </c>
-      <c r="I17" s="8">
-        <v>11900</v>
       </c>
       <c r="J17" s="8">
         <f>H17*I17</f>
+        <v>9660</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="32"/>
+      <c r="B18" s="7">
+        <v>0.93</v>
+      </c>
+      <c r="C18" s="11">
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="D18" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="E18" s="8">
+        <v>2600</v>
+      </c>
+      <c r="F18" s="9">
+        <f t="shared" ref="F18:F20" si="2">D18*E18</f>
+        <v>2080</v>
+      </c>
+      <c r="G18" s="11">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="H18" s="11">
+        <v>0.86</v>
+      </c>
+      <c r="I18" s="8">
+        <v>11900</v>
+      </c>
+      <c r="J18" s="8">
+        <f>H18*I18</f>
         <v>10234</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="31"/>
-      <c r="B18" s="7">
+    <row r="19" spans="1:10">
+      <c r="A19" s="32"/>
+      <c r="B19" s="7">
         <v>0.86</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C19" s="11">
         <v>0.745</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D19" s="11">
         <v>0.74</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E19" s="8">
         <v>15400</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F19" s="9">
         <f t="shared" si="2"/>
         <v>11396</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G19" s="12">
         <v>0.79500000000000004</v>
       </c>
-      <c r="H18" s="12">
+      <c r="H19" s="12">
         <v>0.8</v>
       </c>
-      <c r="I18" s="25">
+      <c r="I19" s="25">
         <v>7100</v>
       </c>
-      <c r="J18" s="8">
-        <f>H18*I18</f>
+      <c r="J19" s="8">
+        <f>H19*I19</f>
         <v>5680</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="31"/>
-      <c r="B19" s="4">
+    <row r="20" spans="1:10">
+      <c r="A20" s="32"/>
+      <c r="B20" s="4">
         <v>0.79</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C20" s="12">
         <v>0.68400000000000005</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D20" s="12">
         <v>0.67900000000000005</v>
       </c>
-      <c r="E19" s="25">
+      <c r="E20" s="25">
         <v>17800</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F20" s="6">
         <f t="shared" si="2"/>
         <v>12086.2</v>
       </c>
-      <c r="J19" s="8"/>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="31"/>
-    </row>
-    <row r="22" spans="1:10" s="20" customFormat="1">
-      <c r="B22" s="4"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" s="20">
-        <v>33700</v>
-      </c>
-      <c r="F22" s="6"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
+      <c r="J20" s="8"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="32"/>
     </row>
     <row r="23" spans="1:10" s="20" customFormat="1">
       <c r="B23" s="4"/>
       <c r="C23" s="12"/>
       <c r="D23" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E23" s="20">
-        <f>SUM(I16:I19)</f>
-        <v>29500</v>
+        <v>33700</v>
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
     </row>
-    <row r="24" spans="1:10">
-      <c r="F24" s="19"/>
-    </row>
-    <row r="25" spans="1:10" ht="19.5">
-      <c r="A25" s="30" t="s">
+    <row r="24" spans="1:10" s="20" customFormat="1">
+      <c r="B24" s="4"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="20">
+        <f>SUM(I17:I20)</f>
+        <v>29500</v>
+      </c>
+      <c r="F24" s="6"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="F25" s="19"/>
+    </row>
+    <row r="26" spans="1:10" ht="19.5">
+      <c r="A26" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-    </row>
-    <row r="26" spans="1:10" ht="27.75" thickBot="1">
-      <c r="A26" s="1" t="s">
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+    </row>
+    <row r="27" spans="1:10" ht="27.75" thickBot="1">
+      <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C27" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D27" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F27" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G26" s="10" t="s">
+      <c r="G27" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H26" s="10" t="s">
+      <c r="H27" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="I27" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J26" s="1" t="s">
+      <c r="J27" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="28" t="s">
+    <row r="28" spans="1:10">
+      <c r="A28" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B28" s="7">
         <v>1</v>
       </c>
-      <c r="C27" s="11">
+      <c r="C28" s="11">
         <v>1.4650000000000001</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D28" s="11">
         <v>1.46</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E28" s="8">
         <v>3400</v>
       </c>
-      <c r="F27" s="9">
-        <f>D27*E27</f>
+      <c r="F28" s="9">
+        <f>D28*E28</f>
         <v>4964</v>
       </c>
-      <c r="G27" s="11">
+      <c r="G28" s="11">
         <v>1.528</v>
       </c>
-      <c r="H27" s="11">
+      <c r="H28" s="11">
         <v>1.5329999999999999</v>
       </c>
-      <c r="I27" s="8">
+      <c r="I28" s="8">
         <v>6100</v>
       </c>
-      <c r="J27" s="8">
-        <f>H27*I27</f>
+      <c r="J28" s="8">
+        <f>H28*I28</f>
         <v>9351.2999999999993</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="29"/>
-      <c r="B28" s="7">
+    <row r="29" spans="1:10">
+      <c r="A29" s="30"/>
+      <c r="B29" s="7">
         <v>0.95</v>
       </c>
-      <c r="C28" s="11">
+      <c r="C29" s="11">
         <v>1.3919999999999999</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D29" s="11">
         <v>1.387</v>
       </c>
-      <c r="E28" s="8">
+      <c r="E29" s="8">
         <v>7600</v>
       </c>
-      <c r="F28" s="9">
-        <f t="shared" ref="F28:F30" si="3">D28*E28</f>
+      <c r="F29" s="9">
+        <f t="shared" ref="F29:F31" si="3">D29*E29</f>
         <v>10541.2</v>
       </c>
-      <c r="G28" s="14">
+      <c r="G29" s="14">
         <v>1.4550000000000001</v>
       </c>
-      <c r="H28" s="14">
+      <c r="H29" s="14">
         <v>1.46</v>
       </c>
-      <c r="I28" s="14">
+      <c r="I29" s="14">
         <v>3600</v>
       </c>
-      <c r="J28" s="14">
-        <f>H28*I28</f>
+      <c r="J29" s="14">
+        <f>H29*I29</f>
         <v>5256</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="29"/>
-      <c r="B29" s="14">
+    <row r="30" spans="1:10">
+      <c r="A30" s="30"/>
+      <c r="B30" s="14">
         <v>0.9</v>
       </c>
-      <c r="C29" s="14">
+      <c r="C30" s="14">
         <v>1.319</v>
       </c>
-      <c r="D29" s="14">
+      <c r="D30" s="14">
         <v>1.3140000000000001</v>
       </c>
-      <c r="E29" s="14">
+      <c r="E30" s="14">
         <v>8300</v>
       </c>
-      <c r="F29" s="15">
+      <c r="F30" s="15">
         <f t="shared" si="3"/>
         <v>10906.2</v>
       </c>
-      <c r="J29" s="8"/>
-    </row>
-    <row r="30" spans="1:10" s="20" customFormat="1">
-      <c r="A30" s="29"/>
-      <c r="B30" s="14">
+      <c r="J30" s="8"/>
+    </row>
+    <row r="31" spans="1:10" s="20" customFormat="1">
+      <c r="A31" s="30"/>
+      <c r="B31" s="14">
         <v>0.85</v>
       </c>
-      <c r="C30" s="14">
+      <c r="C31" s="14">
         <v>1.246</v>
       </c>
-      <c r="D30" s="14">
+      <c r="D31" s="14">
         <v>1.2410000000000001</v>
       </c>
-      <c r="E30" s="14">
+      <c r="E31" s="14">
         <v>9300</v>
       </c>
-      <c r="F30" s="15">
+      <c r="F31" s="15">
         <f t="shared" si="3"/>
         <v>11541.300000000001</v>
       </c>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="J30" s="8"/>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="29"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="J31" s="8"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="D32" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E32" s="20">
-        <v>11200</v>
-      </c>
+      <c r="A32" s="30"/>
     </row>
     <row r="33" spans="1:10">
       <c r="D33" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" s="20">
+        <v>11200</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="D34" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E33" s="20">
-        <f>SUM(I27:I28)</f>
+      <c r="E34" s="20">
+        <f>SUM(I28:I29)</f>
         <v>9700</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="19.5">
-      <c r="A35" s="30" t="s">
+    <row r="36" spans="1:10" ht="19.5">
+      <c r="A36" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B35" s="30"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="30"/>
-    </row>
-    <row r="36" spans="1:10" ht="27.75" thickBot="1">
-      <c r="A36" s="1" t="s">
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="31"/>
+    </row>
+    <row r="37" spans="1:10" ht="27.75" thickBot="1">
+      <c r="A37" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B37" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C37" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="D37" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="F37" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G36" s="10" t="s">
+      <c r="G37" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H36" s="10" t="s">
+      <c r="H37" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="I37" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J36" s="1" t="s">
+      <c r="J37" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="20" customFormat="1" ht="14.25" thickBot="1">
-      <c r="A37" s="28" t="s">
+    <row r="38" spans="1:10" s="20" customFormat="1" ht="14.25" thickBot="1">
+      <c r="A38" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="14">
+      <c r="B38" s="14">
         <v>1</v>
       </c>
-      <c r="C37" s="14">
+      <c r="C38" s="14">
         <v>1.0349999999999999</v>
       </c>
-      <c r="D37" s="14">
+      <c r="D38" s="14">
         <v>1.03</v>
       </c>
-      <c r="E37" s="14">
+      <c r="E38" s="14">
         <v>9700</v>
       </c>
-      <c r="F37" s="24">
-        <f>D37*E37</f>
+      <c r="F38" s="24">
+        <f>D38*E38</f>
         <v>9991</v>
       </c>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="14"/>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="29"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="21"/>
       <c r="G38" s="14"/>
       <c r="H38" s="14"/>
       <c r="I38" s="14"/>
       <c r="J38" s="14"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="29"/>
+      <c r="A39" s="30"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
       <c r="D39" s="14"/>
       <c r="E39" s="14"/>
-      <c r="F39" s="15"/>
-      <c r="I39" s="20"/>
-      <c r="J39" s="8"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="29"/>
+      <c r="A40" s="30"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
       <c r="D40" s="14"/>
@@ -1916,149 +1941,149 @@
       <c r="J40" s="8"/>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="29"/>
-      <c r="E41" s="20"/>
+      <c r="A41" s="30"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="15"/>
       <c r="I41" s="20"/>
-      <c r="J41" s="20"/>
+      <c r="J41" s="8"/>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="20"/>
-      <c r="D42" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E42" s="20">
-        <v>2000</v>
-      </c>
+      <c r="A42" s="30"/>
+      <c r="E42" s="20"/>
       <c r="I42" s="20"/>
       <c r="J42" s="20"/>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="20"/>
       <c r="D43" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E43" s="20">
-        <f>SUM(I37:I38)</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="I43" s="20"/>
       <c r="J43" s="20"/>
     </row>
-    <row r="45" spans="1:10" ht="19.5">
-      <c r="A45" s="30" t="s">
+    <row r="44" spans="1:10">
+      <c r="A44" s="20"/>
+      <c r="D44" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E44" s="20">
+        <f>SUM(I38:I39)</f>
+        <v>0</v>
+      </c>
+      <c r="I44" s="20"/>
+      <c r="J44" s="20"/>
+    </row>
+    <row r="46" spans="1:10" ht="19.5">
+      <c r="A46" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B45" s="30"/>
-      <c r="C45" s="30"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="30"/>
-      <c r="F45" s="30"/>
-      <c r="G45" s="30"/>
-      <c r="H45" s="30"/>
-      <c r="I45" s="30"/>
-      <c r="J45" s="30"/>
-    </row>
-    <row r="46" spans="1:10" ht="27.75" thickBot="1">
-      <c r="A46" s="1" t="s">
+      <c r="B46" s="31"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="31"/>
+      <c r="H46" s="31"/>
+      <c r="I46" s="31"/>
+      <c r="J46" s="31"/>
+    </row>
+    <row r="47" spans="1:10" ht="27.75" thickBot="1">
+      <c r="A47" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B47" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C47" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D46" s="10" t="s">
+      <c r="D47" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E47" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F46" s="5" t="s">
+      <c r="F47" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G46" s="10" t="s">
+      <c r="G47" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H46" s="10" t="s">
+      <c r="H47" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I46" s="1" t="s">
+      <c r="I47" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J46" s="1" t="s">
+      <c r="J47" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="14.25" thickBot="1">
-      <c r="A47" s="28" t="s">
+    <row r="48" spans="1:10" ht="14.25" thickBot="1">
+      <c r="A48" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B47" s="22">
+      <c r="B48" s="22">
         <v>1</v>
       </c>
-      <c r="C47" s="22">
+      <c r="C48" s="22">
         <v>1.905</v>
       </c>
-      <c r="D47" s="22">
+      <c r="D48" s="22">
         <v>1.9</v>
       </c>
-      <c r="E47" s="22">
+      <c r="E48" s="22">
         <v>5300</v>
-      </c>
-      <c r="F47" s="26">
-        <f>D47*E47</f>
-        <v>10070</v>
-      </c>
-      <c r="G47" s="14">
-        <v>1.99</v>
-      </c>
-      <c r="H47" s="14">
-        <v>1.9950000000000001</v>
-      </c>
-      <c r="I47" s="14">
-        <v>4800</v>
-      </c>
-      <c r="J47" s="14">
-        <f>I47*H47</f>
-        <v>9576</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10">
-      <c r="A48" s="29"/>
-      <c r="B48" s="27">
-        <v>0.95</v>
-      </c>
-      <c r="C48" s="27">
-        <v>1.81</v>
-      </c>
-      <c r="D48" s="27">
-        <v>1.8049999999999999</v>
-      </c>
-      <c r="E48" s="27">
-        <v>5800</v>
       </c>
       <c r="F48" s="26">
         <f>D48*E48</f>
+        <v>10070</v>
+      </c>
+      <c r="G48" s="14">
+        <v>1.99</v>
+      </c>
+      <c r="H48" s="14">
+        <v>1.9950000000000001</v>
+      </c>
+      <c r="I48" s="14">
+        <v>4800</v>
+      </c>
+      <c r="J48" s="14">
+        <f>I48*H48</f>
+        <v>9576</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="30"/>
+      <c r="B49" s="27">
+        <v>0.95</v>
+      </c>
+      <c r="C49" s="27">
+        <v>1.81</v>
+      </c>
+      <c r="D49" s="27">
+        <v>1.8049999999999999</v>
+      </c>
+      <c r="E49" s="27">
+        <v>5800</v>
+      </c>
+      <c r="F49" s="26">
+        <f>D49*E49</f>
         <v>10469</v>
       </c>
-      <c r="G48" s="14"/>
-      <c r="H48" s="14"/>
-      <c r="I48" s="14"/>
-      <c r="J48" s="14"/>
-    </row>
-    <row r="49" spans="1:10">
-      <c r="A49" s="29"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="15"/>
-      <c r="I49" s="20"/>
-      <c r="J49" s="8"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="14"/>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="29"/>
+      <c r="A50" s="30"/>
       <c r="B50" s="14"/>
       <c r="C50" s="14"/>
       <c r="D50" s="14"/>
@@ -2068,129 +2093,129 @@
       <c r="J50" s="8"/>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="29"/>
-      <c r="E51" s="20"/>
+      <c r="A51" s="30"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="15"/>
       <c r="I51" s="20"/>
-      <c r="J51" s="20"/>
+      <c r="J51" s="8"/>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="20"/>
-      <c r="D52" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E52" s="20">
-        <v>100</v>
-      </c>
+      <c r="A52" s="30"/>
+      <c r="E52" s="20"/>
       <c r="I52" s="20"/>
       <c r="J52" s="20"/>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="20"/>
       <c r="D53" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E53" s="20">
-        <f>SUM(I47:I48)</f>
-        <v>4800</v>
+        <v>100</v>
       </c>
       <c r="I53" s="20"/>
       <c r="J53" s="20"/>
     </row>
-    <row r="55" spans="1:10" ht="19.5">
-      <c r="A55" s="30" t="s">
+    <row r="54" spans="1:10">
+      <c r="A54" s="20"/>
+      <c r="D54" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E54" s="20">
+        <f>SUM(I48:I49)</f>
+        <v>4800</v>
+      </c>
+      <c r="I54" s="20"/>
+      <c r="J54" s="20"/>
+    </row>
+    <row r="56" spans="1:10" ht="19.5">
+      <c r="A56" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B55" s="30"/>
-      <c r="C55" s="30"/>
-      <c r="D55" s="30"/>
-      <c r="E55" s="30"/>
-      <c r="F55" s="30"/>
-      <c r="G55" s="30"/>
-      <c r="H55" s="30"/>
-      <c r="I55" s="30"/>
-      <c r="J55" s="30"/>
-    </row>
-    <row r="56" spans="1:10" ht="27.75" thickBot="1">
-      <c r="A56" s="1" t="s">
+      <c r="B56" s="31"/>
+      <c r="C56" s="31"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="31"/>
+      <c r="H56" s="31"/>
+      <c r="I56" s="31"/>
+      <c r="J56" s="31"/>
+    </row>
+    <row r="57" spans="1:10" ht="27.75" thickBot="1">
+      <c r="A57" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B57" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C56" s="10" t="s">
+      <c r="C57" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D56" s="10" t="s">
+      <c r="D57" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="E57" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F56" s="5" t="s">
+      <c r="F57" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G56" s="10" t="s">
+      <c r="G57" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H56" s="10" t="s">
+      <c r="H57" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I56" s="1" t="s">
+      <c r="I57" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J56" s="1" t="s">
+      <c r="J57" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
-      <c r="A57" s="28" t="s">
+    <row r="58" spans="1:10">
+      <c r="A58" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B57" s="14">
+      <c r="B58" s="14">
         <v>1</v>
       </c>
-      <c r="C57" s="14">
+      <c r="C58" s="14">
         <v>1.0209999999999999</v>
       </c>
-      <c r="D57" s="14">
+      <c r="D58" s="14">
         <v>1.02</v>
       </c>
-      <c r="E57" s="14">
+      <c r="E58" s="14">
         <v>9800</v>
       </c>
-      <c r="F57" s="21">
-        <f>D57*E57</f>
+      <c r="F58" s="21">
+        <f>D58*E58</f>
         <v>9996</v>
       </c>
-      <c r="G57" s="14"/>
-      <c r="H57" s="14"/>
-      <c r="I57" s="14"/>
-      <c r="J57" s="14"/>
-    </row>
-    <row r="58" spans="1:10">
-      <c r="A58" s="29"/>
-      <c r="B58" s="7"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="9"/>
       <c r="G58" s="14"/>
       <c r="H58" s="14"/>
       <c r="I58" s="14"/>
       <c r="J58" s="14"/>
     </row>
     <row r="59" spans="1:10">
-      <c r="A59" s="29"/>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="15"/>
-      <c r="I59" s="20"/>
-      <c r="J59" s="8"/>
+      <c r="A59" s="30"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="14"/>
+      <c r="H59" s="14"/>
+      <c r="I59" s="14"/>
+      <c r="J59" s="14"/>
     </row>
     <row r="60" spans="1:10">
-      <c r="A60" s="29"/>
+      <c r="A60" s="30"/>
       <c r="B60" s="14"/>
       <c r="C60" s="14"/>
       <c r="D60" s="14"/>
@@ -2200,48 +2225,58 @@
       <c r="J60" s="8"/>
     </row>
     <row r="61" spans="1:10">
-      <c r="A61" s="29"/>
-      <c r="E61" s="20"/>
+      <c r="A61" s="30"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="15"/>
       <c r="I61" s="20"/>
-      <c r="J61" s="20"/>
+      <c r="J61" s="8"/>
     </row>
     <row r="62" spans="1:10">
-      <c r="A62" s="20"/>
-      <c r="D62" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E62" s="20">
-        <v>0</v>
-      </c>
+      <c r="A62" s="30"/>
+      <c r="E62" s="20"/>
       <c r="I62" s="20"/>
       <c r="J62" s="20"/>
     </row>
     <row r="63" spans="1:10">
       <c r="A63" s="20"/>
       <c r="D63" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E63" s="20">
-        <f>SUM(I57:I58)</f>
         <v>0</v>
       </c>
       <c r="I63" s="20"/>
       <c r="J63" s="20"/>
     </row>
+    <row r="64" spans="1:10">
+      <c r="A64" s="20"/>
+      <c r="D64" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E64" s="20">
+        <f>SUM(I58:I59)</f>
+        <v>0</v>
+      </c>
+      <c r="I64" s="20"/>
+      <c r="J64" s="20"/>
+    </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="A58:A62"/>
+    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="A46:J46"/>
+    <mergeCell ref="A48:A52"/>
+    <mergeCell ref="A56:J56"/>
+    <mergeCell ref="A28:A32"/>
     <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A16:A20"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="A45:J45"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="A55:J55"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A3:A8"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/0-网格/00-网格操作.xlsx
+++ b/0-网格/00-网格操作.xlsx
@@ -1179,8 +1179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2029,54 +2029,34 @@
       <c r="A48" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B48" s="22">
+      <c r="B48" s="14">
         <v>1</v>
       </c>
-      <c r="C48" s="22">
+      <c r="C48" s="14">
         <v>1.905</v>
       </c>
-      <c r="D48" s="22">
+      <c r="D48" s="14">
         <v>1.9</v>
       </c>
-      <c r="E48" s="22">
+      <c r="E48" s="14">
         <v>5300</v>
       </c>
-      <c r="F48" s="26">
+      <c r="F48" s="24">
         <f>D48*E48</f>
         <v>10070</v>
       </c>
-      <c r="G48" s="14">
-        <v>1.99</v>
-      </c>
-      <c r="H48" s="14">
-        <v>1.9950000000000001</v>
-      </c>
-      <c r="I48" s="14">
-        <v>4800</v>
-      </c>
-      <c r="J48" s="14">
-        <f>I48*H48</f>
-        <v>9576</v>
-      </c>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="14"/>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="30"/>
-      <c r="B49" s="27">
-        <v>0.95</v>
-      </c>
-      <c r="C49" s="27">
-        <v>1.81</v>
-      </c>
-      <c r="D49" s="27">
-        <v>1.8049999999999999</v>
-      </c>
-      <c r="E49" s="27">
-        <v>5800</v>
-      </c>
-      <c r="F49" s="26">
-        <f>D49*E49</f>
-        <v>10469</v>
-      </c>
+      <c r="B49" s="27"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="26"/>
       <c r="G49" s="14"/>
       <c r="H49" s="14"/>
       <c r="I49" s="14"/>
@@ -2114,7 +2094,7 @@
         <v>15</v>
       </c>
       <c r="E53" s="20">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="I53" s="20"/>
       <c r="J53" s="20"/>
@@ -2126,7 +2106,7 @@
       </c>
       <c r="E54" s="20">
         <f>SUM(I48:I49)</f>
-        <v>4800</v>
+        <v>0</v>
       </c>
       <c r="I54" s="20"/>
       <c r="J54" s="20"/>
@@ -2265,18 +2245,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A3:A8"/>
     <mergeCell ref="A58:A62"/>
     <mergeCell ref="A36:J36"/>
     <mergeCell ref="A38:A42"/>
     <mergeCell ref="A46:J46"/>
     <mergeCell ref="A48:A52"/>
     <mergeCell ref="A56:J56"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A3:A8"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
